--- a/Excel/Other/Session1_Exercise.xlsx
+++ b/Excel/Other/Session1_Exercise.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDB0405-64ED-4650-840E-6434F477681B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise" sheetId="1" r:id="rId1"/>
@@ -136,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,22 +649,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="12" t="s">
         <v>32</v>
       </c>
@@ -678,7 +679,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -691,7 +692,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="14">
         <v>1</v>
       </c>
@@ -708,7 +709,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="14">
         <v>2</v>
       </c>
@@ -725,7 +726,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <v>3</v>
       </c>
@@ -742,7 +743,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="14">
         <v>4</v>
       </c>
@@ -759,7 +760,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14">
         <v>5</v>
       </c>
@@ -782,30 +783,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:N1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,7 +849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -877,7 +880,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -908,7 +911,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -939,7 +942,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -970,7 +973,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1001,7 +1004,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1032,7 +1035,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1066,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -1094,7 +1097,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -1125,7 +1128,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
@@ -1156,7 +1159,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1187,7 +1190,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
@@ -1218,7 +1221,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +1252,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1280,7 +1283,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
@@ -1311,7 +1314,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
@@ -1342,7 +1345,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +1376,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
@@ -1404,7 +1407,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1435,7 +1438,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1469,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
@@ -1497,7 +1500,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
@@ -1528,7 +1531,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>17</v>
       </c>
@@ -1559,7 +1562,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
@@ -1590,7 +1593,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1624,7 @@
       <c r="M28" s="6"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
         <v>17</v>
       </c>
@@ -1652,7 +1655,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
@@ -1683,7 +1686,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
         <v>8</v>
       </c>
@@ -1714,7 +1717,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
         <v>17</v>
       </c>
@@ -1745,7 +1748,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
         <v>8</v>
       </c>
@@ -1776,7 +1779,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
@@ -1807,7 +1810,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
         <v>8</v>
       </c>
@@ -1838,7 +1841,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
         <v>8</v>
       </c>
@@ -1869,7 +1872,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
         <v>17</v>
       </c>
@@ -1900,7 +1903,7 @@
       <c r="M37" s="6"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
         <v>17</v>
       </c>
@@ -1931,7 +1934,7 @@
       <c r="M38" s="6"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>17</v>
       </c>
@@ -1962,7 +1965,7 @@
       <c r="M39" s="6"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
@@ -1993,7 +1996,7 @@
       <c r="M40" s="6"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
         <v>8</v>
       </c>
@@ -2024,7 +2027,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
         <v>8</v>
       </c>
@@ -2055,7 +2058,7 @@
       <c r="M42" s="6"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="5" t="s">
         <v>17</v>
       </c>
@@ -2086,7 +2089,7 @@
       <c r="M43" s="6"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
         <v>17</v>
       </c>
@@ -2117,7 +2120,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="5" t="s">
         <v>8</v>
       </c>
@@ -2148,7 +2151,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
@@ -2179,7 +2182,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
         <v>17</v>
       </c>
@@ -2210,7 +2213,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B48" s="5" t="s">
         <v>8</v>
       </c>
@@ -2241,7 +2244,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B49" s="5" t="s">
         <v>17</v>
       </c>
@@ -2272,7 +2275,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B50" s="5" t="s">
         <v>8</v>
       </c>
@@ -2303,7 +2306,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B51" s="5" t="s">
         <v>8</v>
       </c>
@@ -2334,7 +2337,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B52" s="5" t="s">
         <v>8</v>
       </c>
@@ -2365,7 +2368,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B53" s="5" t="s">
         <v>17</v>
       </c>
@@ -2396,7 +2399,7 @@
       <c r="M53" s="6"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B54" s="5" t="s">
         <v>17</v>
       </c>
@@ -2427,7 +2430,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B55" s="5" t="s">
         <v>17</v>
       </c>
@@ -2458,7 +2461,7 @@
       <c r="M55" s="6"/>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B56" s="5" t="s">
         <v>17</v>
       </c>
@@ -2489,7 +2492,7 @@
       <c r="M56" s="6"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B57" s="5" t="s">
         <v>17</v>
       </c>
@@ -2520,7 +2523,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="7"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B58" s="5" t="s">
         <v>8</v>
       </c>
@@ -2551,7 +2554,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="7"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B59" s="5" t="s">
         <v>8</v>
       </c>
@@ -2582,7 +2585,7 @@
       <c r="M59" s="6"/>
       <c r="N59" s="7"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B60" s="5" t="s">
         <v>8</v>
       </c>
@@ -2613,7 +2616,7 @@
       <c r="M60" s="6"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B61" s="5" t="s">
         <v>17</v>
       </c>
@@ -2644,7 +2647,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B62" s="5" t="s">
         <v>17</v>
       </c>
@@ -2675,7 +2678,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="7"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B63" s="5" t="s">
         <v>8</v>
       </c>
@@ -2706,7 +2709,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="7"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B64" s="5" t="s">
         <v>17</v>
       </c>
@@ -2737,7 +2740,7 @@
       <c r="M64" s="6"/>
       <c r="N64" s="7"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B65" s="5" t="s">
         <v>17</v>
       </c>
@@ -2768,7 +2771,7 @@
       <c r="M65" s="6"/>
       <c r="N65" s="7"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B66" s="5" t="s">
         <v>17</v>
       </c>
@@ -2799,7 +2802,7 @@
       <c r="M66" s="6"/>
       <c r="N66" s="7"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B67" s="5" t="s">
         <v>8</v>
       </c>
@@ -2830,7 +2833,7 @@
       <c r="M67" s="6"/>
       <c r="N67" s="7"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B68" s="5" t="s">
         <v>8</v>
       </c>
@@ -2861,7 +2864,7 @@
       <c r="M68" s="6"/>
       <c r="N68" s="7"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B69" s="5" t="s">
         <v>17</v>
       </c>
@@ -2892,7 +2895,7 @@
       <c r="M69" s="6"/>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B70" s="5" t="s">
         <v>17</v>
       </c>
@@ -2923,7 +2926,7 @@
       <c r="M70" s="6"/>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B71" s="5" t="s">
         <v>8</v>
       </c>
@@ -2954,7 +2957,7 @@
       <c r="M71" s="6"/>
       <c r="N71" s="7"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B72" s="5" t="s">
         <v>17</v>
       </c>
@@ -2985,7 +2988,7 @@
       <c r="M72" s="6"/>
       <c r="N72" s="7"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B73" s="5" t="s">
         <v>8</v>
       </c>
@@ -3016,7 +3019,7 @@
       <c r="M73" s="6"/>
       <c r="N73" s="7"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B74" s="5" t="s">
         <v>8</v>
       </c>
@@ -3047,7 +3050,7 @@
       <c r="M74" s="6"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B75" s="5" t="s">
         <v>17</v>
       </c>
@@ -3078,7 +3081,7 @@
       <c r="M75" s="6"/>
       <c r="N75" s="7"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B76" s="5" t="s">
         <v>8</v>
       </c>
@@ -3109,7 +3112,7 @@
       <c r="M76" s="6"/>
       <c r="N76" s="7"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B77" s="5" t="s">
         <v>17</v>
       </c>
@@ -3140,7 +3143,7 @@
       <c r="M77" s="6"/>
       <c r="N77" s="7"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B78" s="5" t="s">
         <v>17</v>
       </c>
@@ -3171,7 +3174,7 @@
       <c r="M78" s="6"/>
       <c r="N78" s="7"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B79" s="5" t="s">
         <v>17</v>
       </c>
@@ -3202,7 +3205,7 @@
       <c r="M79" s="6"/>
       <c r="N79" s="7"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B80" s="5" t="s">
         <v>17</v>
       </c>
@@ -3233,7 +3236,7 @@
       <c r="M80" s="6"/>
       <c r="N80" s="7"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B81" s="5" t="s">
         <v>17</v>
       </c>
@@ -3264,7 +3267,7 @@
       <c r="M81" s="6"/>
       <c r="N81" s="7"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B82" s="5" t="s">
         <v>8</v>
       </c>
@@ -3295,7 +3298,7 @@
       <c r="M82" s="6"/>
       <c r="N82" s="7"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B83" s="5" t="s">
         <v>8</v>
       </c>
@@ -3326,7 +3329,7 @@
       <c r="M83" s="6"/>
       <c r="N83" s="7"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B84" s="5" t="s">
         <v>8</v>
       </c>
@@ -3357,7 +3360,7 @@
       <c r="M84" s="6"/>
       <c r="N84" s="7"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B85" s="5" t="s">
         <v>17</v>
       </c>
@@ -3388,7 +3391,7 @@
       <c r="M85" s="6"/>
       <c r="N85" s="7"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B86" s="5" t="s">
         <v>17</v>
       </c>
@@ -3419,7 +3422,7 @@
       <c r="M86" s="6"/>
       <c r="N86" s="7"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87" s="5" t="s">
         <v>17</v>
       </c>
@@ -3450,7 +3453,7 @@
       <c r="M87" s="6"/>
       <c r="N87" s="7"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="5" t="s">
         <v>17</v>
       </c>
@@ -3481,7 +3484,7 @@
       <c r="M88" s="6"/>
       <c r="N88" s="7"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89" s="5" t="s">
         <v>8</v>
       </c>
@@ -3512,7 +3515,7 @@
       <c r="M89" s="6"/>
       <c r="N89" s="7"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90" s="5" t="s">
         <v>8</v>
       </c>
@@ -3543,7 +3546,7 @@
       <c r="M90" s="6"/>
       <c r="N90" s="7"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B91" s="5" t="s">
         <v>8</v>
       </c>
@@ -3574,7 +3577,7 @@
       <c r="M91" s="6"/>
       <c r="N91" s="7"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B92" s="5" t="s">
         <v>8</v>
       </c>
@@ -3605,7 +3608,7 @@
       <c r="M92" s="6"/>
       <c r="N92" s="7"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B93" s="5" t="s">
         <v>8</v>
       </c>
@@ -3636,7 +3639,7 @@
       <c r="M93" s="6"/>
       <c r="N93" s="7"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B94" s="5" t="s">
         <v>8</v>
       </c>
@@ -3667,7 +3670,7 @@
       <c r="M94" s="6"/>
       <c r="N94" s="7"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B95" s="5" t="s">
         <v>17</v>
       </c>
@@ -3698,7 +3701,7 @@
       <c r="M95" s="6"/>
       <c r="N95" s="7"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B96" s="5" t="s">
         <v>17</v>
       </c>
@@ -3729,7 +3732,7 @@
       <c r="M96" s="6"/>
       <c r="N96" s="7"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B97" s="5" t="s">
         <v>17</v>
       </c>
@@ -3760,7 +3763,7 @@
       <c r="M97" s="6"/>
       <c r="N97" s="7"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B98" s="5" t="s">
         <v>8</v>
       </c>
@@ -3791,7 +3794,7 @@
       <c r="M98" s="6"/>
       <c r="N98" s="7"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B99" s="5" t="s">
         <v>17</v>
       </c>
@@ -3822,7 +3825,7 @@
       <c r="M99" s="6"/>
       <c r="N99" s="7"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B100" s="5" t="s">
         <v>17</v>
       </c>
@@ -3853,7 +3856,7 @@
       <c r="M100" s="6"/>
       <c r="N100" s="7"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B101" s="5" t="s">
         <v>8</v>
       </c>
@@ -3884,7 +3887,7 @@
       <c r="M101" s="6"/>
       <c r="N101" s="7"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B102" s="5" t="s">
         <v>8</v>
       </c>
@@ -3915,7 +3918,7 @@
       <c r="M102" s="6"/>
       <c r="N102" s="7"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B103" s="5" t="s">
         <v>8</v>
       </c>
@@ -3946,7 +3949,7 @@
       <c r="M103" s="6"/>
       <c r="N103" s="7"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B104" s="5" t="s">
         <v>17</v>
       </c>
@@ -3977,7 +3980,7 @@
       <c r="M104" s="6"/>
       <c r="N104" s="7"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B105" s="5" t="s">
         <v>17</v>
       </c>
@@ -4008,7 +4011,7 @@
       <c r="M105" s="6"/>
       <c r="N105" s="7"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B106" s="5" t="s">
         <v>8</v>
       </c>
@@ -4039,7 +4042,7 @@
       <c r="M106" s="6"/>
       <c r="N106" s="7"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B107" s="5" t="s">
         <v>17</v>
       </c>
@@ -4070,7 +4073,7 @@
       <c r="M107" s="6"/>
       <c r="N107" s="7"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B108" s="5" t="s">
         <v>17</v>
       </c>
@@ -4101,7 +4104,7 @@
       <c r="M108" s="6"/>
       <c r="N108" s="7"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B109" s="5" t="s">
         <v>8</v>
       </c>
@@ -4132,7 +4135,7 @@
       <c r="M109" s="6"/>
       <c r="N109" s="7"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B110" s="5" t="s">
         <v>8</v>
       </c>
@@ -4163,7 +4166,7 @@
       <c r="M110" s="6"/>
       <c r="N110" s="7"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B111" s="5" t="s">
         <v>17</v>
       </c>
@@ -4194,7 +4197,7 @@
       <c r="M111" s="6"/>
       <c r="N111" s="7"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B112" s="5" t="s">
         <v>8</v>
       </c>
@@ -4225,7 +4228,7 @@
       <c r="M112" s="6"/>
       <c r="N112" s="7"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B113" s="5" t="s">
         <v>8</v>
       </c>
@@ -4256,7 +4259,7 @@
       <c r="M113" s="6"/>
       <c r="N113" s="7"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B114" s="5" t="s">
         <v>8</v>
       </c>
@@ -4287,7 +4290,7 @@
       <c r="M114" s="6"/>
       <c r="N114" s="7"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B115" s="5" t="s">
         <v>17</v>
       </c>
@@ -4318,7 +4321,7 @@
       <c r="M115" s="6"/>
       <c r="N115" s="7"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B116" s="5" t="s">
         <v>17</v>
       </c>
@@ -4349,7 +4352,7 @@
       <c r="M116" s="6"/>
       <c r="N116" s="7"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B117" s="5" t="s">
         <v>8</v>
       </c>
@@ -4380,7 +4383,7 @@
       <c r="M117" s="6"/>
       <c r="N117" s="7"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B118" s="5" t="s">
         <v>8</v>
       </c>
@@ -4411,7 +4414,7 @@
       <c r="M118" s="6"/>
       <c r="N118" s="7"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B119" s="5" t="s">
         <v>17</v>
       </c>
@@ -4442,7 +4445,7 @@
       <c r="M119" s="6"/>
       <c r="N119" s="7"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B120" s="5" t="s">
         <v>8</v>
       </c>
@@ -4473,7 +4476,7 @@
       <c r="M120" s="6"/>
       <c r="N120" s="7"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B121" s="5" t="s">
         <v>8</v>
       </c>
@@ -4504,7 +4507,7 @@
       <c r="M121" s="6"/>
       <c r="N121" s="7"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B122" s="5" t="s">
         <v>8</v>
       </c>
@@ -4535,7 +4538,7 @@
       <c r="M122" s="6"/>
       <c r="N122" s="7"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B123" s="5" t="s">
         <v>8</v>
       </c>
@@ -4566,7 +4569,7 @@
       <c r="M123" s="6"/>
       <c r="N123" s="7"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B124" s="5" t="s">
         <v>8</v>
       </c>
@@ -4597,7 +4600,7 @@
       <c r="M124" s="6"/>
       <c r="N124" s="7"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B125" s="5" t="s">
         <v>17</v>
       </c>
@@ -4628,7 +4631,7 @@
       <c r="M125" s="6"/>
       <c r="N125" s="7"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B126" s="5" t="s">
         <v>8</v>
       </c>
@@ -4659,7 +4662,7 @@
       <c r="M126" s="6"/>
       <c r="N126" s="7"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B127" s="5" t="s">
         <v>17</v>
       </c>
@@ -4690,7 +4693,7 @@
       <c r="M127" s="6"/>
       <c r="N127" s="7"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B128" s="5" t="s">
         <v>17</v>
       </c>
@@ -4721,7 +4724,7 @@
       <c r="M128" s="6"/>
       <c r="N128" s="7"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B129" s="5" t="s">
         <v>8</v>
       </c>
@@ -4752,7 +4755,7 @@
       <c r="M129" s="6"/>
       <c r="N129" s="7"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B130" s="5" t="s">
         <v>17</v>
       </c>
@@ -4783,7 +4786,7 @@
       <c r="M130" s="6"/>
       <c r="N130" s="7"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B131" s="5" t="s">
         <v>17</v>
       </c>
@@ -4814,7 +4817,7 @@
       <c r="M131" s="6"/>
       <c r="N131" s="7"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B132" s="5" t="s">
         <v>17</v>
       </c>
@@ -4845,7 +4848,7 @@
       <c r="M132" s="6"/>
       <c r="N132" s="7"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B133" s="5" t="s">
         <v>8</v>
       </c>
@@ -4876,7 +4879,7 @@
       <c r="M133" s="6"/>
       <c r="N133" s="7"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B134" s="5" t="s">
         <v>17</v>
       </c>
@@ -4907,7 +4910,7 @@
       <c r="M134" s="6"/>
       <c r="N134" s="7"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B135" s="5" t="s">
         <v>17</v>
       </c>
@@ -4938,7 +4941,7 @@
       <c r="M135" s="6"/>
       <c r="N135" s="7"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B136" s="5" t="s">
         <v>17</v>
       </c>
@@ -4969,7 +4972,7 @@
       <c r="M136" s="6"/>
       <c r="N136" s="7"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B137" s="5" t="s">
         <v>8</v>
       </c>
@@ -5000,7 +5003,7 @@
       <c r="M137" s="6"/>
       <c r="N137" s="7"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B138" s="5" t="s">
         <v>17</v>
       </c>
@@ -5031,7 +5034,7 @@
       <c r="M138" s="6"/>
       <c r="N138" s="7"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B139" s="5" t="s">
         <v>17</v>
       </c>
@@ -5062,7 +5065,7 @@
       <c r="M139" s="6"/>
       <c r="N139" s="7"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B140" s="5" t="s">
         <v>17</v>
       </c>
@@ -5093,7 +5096,7 @@
       <c r="M140" s="6"/>
       <c r="N140" s="7"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B141" s="5" t="s">
         <v>17</v>
       </c>
@@ -5124,7 +5127,7 @@
       <c r="M141" s="6"/>
       <c r="N141" s="7"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B142" s="5" t="s">
         <v>8</v>
       </c>
@@ -5155,7 +5158,7 @@
       <c r="M142" s="6"/>
       <c r="N142" s="7"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B143" s="5" t="s">
         <v>17</v>
       </c>
@@ -5186,7 +5189,7 @@
       <c r="M143" s="6"/>
       <c r="N143" s="7"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B144" s="5" t="s">
         <v>8</v>
       </c>
@@ -5217,7 +5220,7 @@
       <c r="M144" s="6"/>
       <c r="N144" s="7"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B145" s="5" t="s">
         <v>8</v>
       </c>
@@ -5248,7 +5251,7 @@
       <c r="M145" s="6"/>
       <c r="N145" s="7"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B146" s="5" t="s">
         <v>8</v>
       </c>
@@ -5279,7 +5282,7 @@
       <c r="M146" s="6"/>
       <c r="N146" s="7"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B147" s="5" t="s">
         <v>17</v>
       </c>
@@ -5310,7 +5313,7 @@
       <c r="M147" s="6"/>
       <c r="N147" s="7"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B148" s="5" t="s">
         <v>17</v>
       </c>
@@ -5341,7 +5344,7 @@
       <c r="M148" s="6"/>
       <c r="N148" s="7"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B149" s="5" t="s">
         <v>8</v>
       </c>
@@ -5372,7 +5375,7 @@
       <c r="M149" s="6"/>
       <c r="N149" s="7"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B150" s="5" t="s">
         <v>17</v>
       </c>
@@ -5403,7 +5406,7 @@
       <c r="M150" s="6"/>
       <c r="N150" s="7"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B151" s="5" t="s">
         <v>17</v>
       </c>
@@ -5434,7 +5437,7 @@
       <c r="M151" s="6"/>
       <c r="N151" s="7"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B152" s="5" t="s">
         <v>8</v>
       </c>
@@ -5465,7 +5468,7 @@
       <c r="M152" s="6"/>
       <c r="N152" s="7"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B153" s="5" t="s">
         <v>17</v>
       </c>
@@ -5496,7 +5499,7 @@
       <c r="M153" s="6"/>
       <c r="N153" s="7"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B154" s="5" t="s">
         <v>17</v>
       </c>
@@ -5527,7 +5530,7 @@
       <c r="M154" s="6"/>
       <c r="N154" s="7"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B155" s="5" t="s">
         <v>17</v>
       </c>
@@ -5558,7 +5561,7 @@
       <c r="M155" s="6"/>
       <c r="N155" s="7"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B156" s="5" t="s">
         <v>8</v>
       </c>
@@ -5589,7 +5592,7 @@
       <c r="M156" s="6"/>
       <c r="N156" s="7"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B157" s="5" t="s">
         <v>17</v>
       </c>
@@ -5620,7 +5623,7 @@
       <c r="M157" s="6"/>
       <c r="N157" s="7"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B158" s="5" t="s">
         <v>17</v>
       </c>
@@ -5651,7 +5654,7 @@
       <c r="M158" s="6"/>
       <c r="N158" s="7"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B159" s="5" t="s">
         <v>8</v>
       </c>
@@ -5682,7 +5685,7 @@
       <c r="M159" s="6"/>
       <c r="N159" s="7"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B160" s="5" t="s">
         <v>8</v>
       </c>
@@ -5713,7 +5716,7 @@
       <c r="M160" s="6"/>
       <c r="N160" s="7"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B161" s="5" t="s">
         <v>17</v>
       </c>
@@ -5744,7 +5747,7 @@
       <c r="M161" s="6"/>
       <c r="N161" s="7"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B162" s="5" t="s">
         <v>8</v>
       </c>
@@ -5775,7 +5778,7 @@
       <c r="M162" s="6"/>
       <c r="N162" s="7"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B163" s="5" t="s">
         <v>17</v>
       </c>
@@ -5806,7 +5809,7 @@
       <c r="M163" s="6"/>
       <c r="N163" s="7"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B164" s="5" t="s">
         <v>17</v>
       </c>
@@ -5837,7 +5840,7 @@
       <c r="M164" s="6"/>
       <c r="N164" s="7"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B165" s="5" t="s">
         <v>8</v>
       </c>
@@ -5868,7 +5871,7 @@
       <c r="M165" s="6"/>
       <c r="N165" s="7"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B166" s="5" t="s">
         <v>17</v>
       </c>
@@ -5899,7 +5902,7 @@
       <c r="M166" s="6"/>
       <c r="N166" s="7"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B167" s="5" t="s">
         <v>17</v>
       </c>
@@ -5930,7 +5933,7 @@
       <c r="M167" s="6"/>
       <c r="N167" s="7"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B168" s="5" t="s">
         <v>8</v>
       </c>
@@ -5961,7 +5964,7 @@
       <c r="M168" s="6"/>
       <c r="N168" s="7"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B169" s="5" t="s">
         <v>8</v>
       </c>
@@ -5992,7 +5995,7 @@
       <c r="M169" s="6"/>
       <c r="N169" s="7"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B170" s="5" t="s">
         <v>17</v>
       </c>
@@ -6023,7 +6026,7 @@
       <c r="M170" s="6"/>
       <c r="N170" s="7"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B171" s="5" t="s">
         <v>8</v>
       </c>
@@ -6054,7 +6057,7 @@
       <c r="M171" s="6"/>
       <c r="N171" s="7"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B172" s="5" t="s">
         <v>8</v>
       </c>
@@ -6085,7 +6088,7 @@
       <c r="M172" s="6"/>
       <c r="N172" s="7"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B173" s="5" t="s">
         <v>8</v>
       </c>
@@ -6116,7 +6119,7 @@
       <c r="M173" s="6"/>
       <c r="N173" s="7"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B174" s="5" t="s">
         <v>17</v>
       </c>
@@ -6147,7 +6150,7 @@
       <c r="M174" s="6"/>
       <c r="N174" s="7"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B175" s="5" t="s">
         <v>17</v>
       </c>
@@ -6178,7 +6181,7 @@
       <c r="M175" s="6"/>
       <c r="N175" s="7"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B176" s="5" t="s">
         <v>8</v>
       </c>
@@ -6209,7 +6212,7 @@
       <c r="M176" s="6"/>
       <c r="N176" s="7"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B177" s="5" t="s">
         <v>8</v>
       </c>
@@ -6240,7 +6243,7 @@
       <c r="M177" s="6"/>
       <c r="N177" s="7"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B178" s="5" t="s">
         <v>8</v>
       </c>
@@ -6271,7 +6274,7 @@
       <c r="M178" s="6"/>
       <c r="N178" s="7"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B179" s="5" t="s">
         <v>8</v>
       </c>
@@ -6302,7 +6305,7 @@
       <c r="M179" s="6"/>
       <c r="N179" s="7"/>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B180" s="5" t="s">
         <v>8</v>
       </c>
@@ -6333,7 +6336,7 @@
       <c r="M180" s="6"/>
       <c r="N180" s="7"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B181" s="5" t="s">
         <v>8</v>
       </c>
@@ -6364,7 +6367,7 @@
       <c r="M181" s="6"/>
       <c r="N181" s="7"/>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B182" s="5" t="s">
         <v>8</v>
       </c>
@@ -6395,7 +6398,7 @@
       <c r="M182" s="6"/>
       <c r="N182" s="7"/>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B183" s="5" t="s">
         <v>8</v>
       </c>
@@ -6426,7 +6429,7 @@
       <c r="M183" s="6"/>
       <c r="N183" s="7"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B184" s="5" t="s">
         <v>17</v>
       </c>
@@ -6457,7 +6460,7 @@
       <c r="M184" s="6"/>
       <c r="N184" s="7"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B185" s="5" t="s">
         <v>8</v>
       </c>
@@ -6488,7 +6491,7 @@
       <c r="M185" s="6"/>
       <c r="N185" s="7"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B186" s="5" t="s">
         <v>8</v>
       </c>
@@ -6519,7 +6522,7 @@
       <c r="M186" s="6"/>
       <c r="N186" s="7"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B187" s="5" t="s">
         <v>8</v>
       </c>
@@ -6550,7 +6553,7 @@
       <c r="M187" s="6"/>
       <c r="N187" s="7"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B188" s="5" t="s">
         <v>17</v>
       </c>
@@ -6581,7 +6584,7 @@
       <c r="M188" s="6"/>
       <c r="N188" s="7"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B189" s="5" t="s">
         <v>17</v>
       </c>
@@ -6612,7 +6615,7 @@
       <c r="M189" s="6"/>
       <c r="N189" s="7"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B190" s="5" t="s">
         <v>17</v>
       </c>
@@ -6643,7 +6646,7 @@
       <c r="M190" s="6"/>
       <c r="N190" s="7"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B191" s="5" t="s">
         <v>17</v>
       </c>
@@ -6674,7 +6677,7 @@
       <c r="M191" s="6"/>
       <c r="N191" s="7"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B192" s="5" t="s">
         <v>17</v>
       </c>
@@ -6705,7 +6708,7 @@
       <c r="M192" s="6"/>
       <c r="N192" s="7"/>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B193" s="5" t="s">
         <v>8</v>
       </c>
@@ -6736,7 +6739,7 @@
       <c r="M193" s="6"/>
       <c r="N193" s="7"/>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B194" s="5" t="s">
         <v>8</v>
       </c>
@@ -6767,7 +6770,7 @@
       <c r="M194" s="6"/>
       <c r="N194" s="7"/>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B195" s="5" t="s">
         <v>17</v>
       </c>
@@ -6798,7 +6801,7 @@
       <c r="M195" s="6"/>
       <c r="N195" s="7"/>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B196" s="5" t="s">
         <v>8</v>
       </c>
@@ -6829,7 +6832,7 @@
       <c r="M196" s="6"/>
       <c r="N196" s="7"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B197" s="5" t="s">
         <v>17</v>
       </c>
@@ -6860,7 +6863,7 @@
       <c r="M197" s="6"/>
       <c r="N197" s="7"/>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B198" s="5" t="s">
         <v>8</v>
       </c>
@@ -6891,7 +6894,7 @@
       <c r="M198" s="6"/>
       <c r="N198" s="7"/>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B199" s="5" t="s">
         <v>17</v>
       </c>
@@ -6922,7 +6925,7 @@
       <c r="M199" s="6"/>
       <c r="N199" s="7"/>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B200" s="5" t="s">
         <v>17</v>
       </c>
@@ -6953,7 +6956,7 @@
       <c r="M200" s="6"/>
       <c r="N200" s="7"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B201" s="5" t="s">
         <v>17</v>
       </c>
@@ -6984,7 +6987,7 @@
       <c r="M201" s="6"/>
       <c r="N201" s="7"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B202" s="5" t="s">
         <v>8</v>
       </c>
@@ -7015,7 +7018,7 @@
       <c r="M202" s="6"/>
       <c r="N202" s="7"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B203" s="5" t="s">
         <v>8</v>
       </c>
@@ -7046,7 +7049,7 @@
       <c r="M203" s="6"/>
       <c r="N203" s="7"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B204" s="5" t="s">
         <v>8</v>
       </c>
@@ -7077,7 +7080,7 @@
       <c r="M204" s="6"/>
       <c r="N204" s="7"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B205" s="5" t="s">
         <v>8</v>
       </c>
@@ -7108,7 +7111,7 @@
       <c r="M205" s="6"/>
       <c r="N205" s="7"/>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B206" s="5" t="s">
         <v>17</v>
       </c>
@@ -7139,7 +7142,7 @@
       <c r="M206" s="6"/>
       <c r="N206" s="7"/>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B207" s="5" t="s">
         <v>8</v>
       </c>
@@ -7170,7 +7173,7 @@
       <c r="M207" s="6"/>
       <c r="N207" s="7"/>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B208" s="5" t="s">
         <v>17</v>
       </c>
@@ -7201,7 +7204,7 @@
       <c r="M208" s="6"/>
       <c r="N208" s="7"/>
     </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B209" s="5" t="s">
         <v>17</v>
       </c>
@@ -7232,7 +7235,7 @@
       <c r="M209" s="6"/>
       <c r="N209" s="7"/>
     </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B210" s="5" t="s">
         <v>17</v>
       </c>
@@ -7263,7 +7266,7 @@
       <c r="M210" s="6"/>
       <c r="N210" s="7"/>
     </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B211" s="5" t="s">
         <v>17</v>
       </c>
@@ -7294,7 +7297,7 @@
       <c r="M211" s="6"/>
       <c r="N211" s="7"/>
     </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B212" s="5" t="s">
         <v>8</v>
       </c>
@@ -7325,7 +7328,7 @@
       <c r="M212" s="6"/>
       <c r="N212" s="7"/>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B213" s="5" t="s">
         <v>8</v>
       </c>
@@ -7356,7 +7359,7 @@
       <c r="M213" s="6"/>
       <c r="N213" s="7"/>
     </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B214" s="5" t="s">
         <v>17</v>
       </c>
@@ -7387,7 +7390,7 @@
       <c r="M214" s="6"/>
       <c r="N214" s="7"/>
     </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B215" s="5" t="s">
         <v>17</v>
       </c>
@@ -7418,7 +7421,7 @@
       <c r="M215" s="6"/>
       <c r="N215" s="7"/>
     </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B216" s="5" t="s">
         <v>8</v>
       </c>
@@ -7449,7 +7452,7 @@
       <c r="M216" s="6"/>
       <c r="N216" s="7"/>
     </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B217" s="5" t="s">
         <v>17</v>
       </c>
@@ -7480,7 +7483,7 @@
       <c r="M217" s="6"/>
       <c r="N217" s="7"/>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B218" s="5" t="s">
         <v>17</v>
       </c>
@@ -7511,7 +7514,7 @@
       <c r="M218" s="6"/>
       <c r="N218" s="7"/>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B219" s="5" t="s">
         <v>17</v>
       </c>
@@ -7542,7 +7545,7 @@
       <c r="M219" s="6"/>
       <c r="N219" s="7"/>
     </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B220" s="5" t="s">
         <v>8</v>
       </c>
@@ -7573,7 +7576,7 @@
       <c r="M220" s="6"/>
       <c r="N220" s="7"/>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B221" s="5" t="s">
         <v>8</v>
       </c>
@@ -7604,7 +7607,7 @@
       <c r="M221" s="6"/>
       <c r="N221" s="7"/>
     </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B222" s="5" t="s">
         <v>17</v>
       </c>
@@ -7635,7 +7638,7 @@
       <c r="M222" s="6"/>
       <c r="N222" s="7"/>
     </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B223" s="5" t="s">
         <v>17</v>
       </c>
@@ -7666,7 +7669,7 @@
       <c r="M223" s="6"/>
       <c r="N223" s="7"/>
     </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B224" s="5" t="s">
         <v>8</v>
       </c>
@@ -7697,7 +7700,7 @@
       <c r="M224" s="6"/>
       <c r="N224" s="7"/>
     </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B225" s="5" t="s">
         <v>17</v>
       </c>
@@ -7728,7 +7731,7 @@
       <c r="M225" s="6"/>
       <c r="N225" s="7"/>
     </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B226" s="5" t="s">
         <v>8</v>
       </c>
@@ -7759,7 +7762,7 @@
       <c r="M226" s="6"/>
       <c r="N226" s="7"/>
     </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B227" s="5" t="s">
         <v>17</v>
       </c>
@@ -7790,7 +7793,7 @@
       <c r="M227" s="6"/>
       <c r="N227" s="7"/>
     </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B228" s="5" t="s">
         <v>8</v>
       </c>
@@ -7821,7 +7824,7 @@
       <c r="M228" s="6"/>
       <c r="N228" s="7"/>
     </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B229" s="5" t="s">
         <v>8</v>
       </c>
@@ -7852,7 +7855,7 @@
       <c r="M229" s="6"/>
       <c r="N229" s="7"/>
     </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B230" s="5" t="s">
         <v>8</v>
       </c>
@@ -7883,7 +7886,7 @@
       <c r="M230" s="6"/>
       <c r="N230" s="7"/>
     </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B231" s="5" t="s">
         <v>17</v>
       </c>
@@ -7914,7 +7917,7 @@
       <c r="M231" s="6"/>
       <c r="N231" s="7"/>
     </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B232" s="5" t="s">
         <v>17</v>
       </c>
@@ -7945,7 +7948,7 @@
       <c r="M232" s="6"/>
       <c r="N232" s="7"/>
     </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B233" s="5" t="s">
         <v>8</v>
       </c>
@@ -7976,7 +7979,7 @@
       <c r="M233" s="6"/>
       <c r="N233" s="7"/>
     </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B234" s="5" t="s">
         <v>17</v>
       </c>
@@ -8007,7 +8010,7 @@
       <c r="M234" s="6"/>
       <c r="N234" s="7"/>
     </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B235" s="5" t="s">
         <v>17</v>
       </c>
@@ -8038,7 +8041,7 @@
       <c r="M235" s="6"/>
       <c r="N235" s="7"/>
     </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B236" s="5" t="s">
         <v>8</v>
       </c>
@@ -8069,7 +8072,7 @@
       <c r="M236" s="6"/>
       <c r="N236" s="7"/>
     </row>
-    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B237" s="5" t="s">
         <v>17</v>
       </c>
@@ -8100,7 +8103,7 @@
       <c r="M237" s="6"/>
       <c r="N237" s="7"/>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B238" s="5" t="s">
         <v>17</v>
       </c>
@@ -8131,7 +8134,7 @@
       <c r="M238" s="6"/>
       <c r="N238" s="7"/>
     </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B239" s="5" t="s">
         <v>17</v>
       </c>
@@ -8162,7 +8165,7 @@
       <c r="M239" s="6"/>
       <c r="N239" s="7"/>
     </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B240" s="5" t="s">
         <v>17</v>
       </c>
@@ -8193,7 +8196,7 @@
       <c r="M240" s="6"/>
       <c r="N240" s="7"/>
     </row>
-    <row r="241" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B241" s="5" t="s">
         <v>8</v>
       </c>
@@ -8224,7 +8227,7 @@
       <c r="M241" s="6"/>
       <c r="N241" s="7"/>
     </row>
-    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B242" s="5" t="s">
         <v>17</v>
       </c>
@@ -8255,7 +8258,7 @@
       <c r="M242" s="6"/>
       <c r="N242" s="7"/>
     </row>
-    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B243" s="5" t="s">
         <v>17</v>
       </c>
@@ -8286,7 +8289,7 @@
       <c r="M243" s="6"/>
       <c r="N243" s="7"/>
     </row>
-    <row r="244" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B244" s="5" t="s">
         <v>17</v>
       </c>
@@ -8317,7 +8320,7 @@
       <c r="M244" s="6"/>
       <c r="N244" s="7"/>
     </row>
-    <row r="245" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B245" s="5" t="s">
         <v>8</v>
       </c>
@@ -8348,7 +8351,7 @@
       <c r="M245" s="6"/>
       <c r="N245" s="7"/>
     </row>
-    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B246" s="5" t="s">
         <v>8</v>
       </c>
@@ -8379,7 +8382,7 @@
       <c r="M246" s="6"/>
       <c r="N246" s="7"/>
     </row>
-    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B247" s="5" t="s">
         <v>17</v>
       </c>
@@ -8410,7 +8413,7 @@
       <c r="M247" s="6"/>
       <c r="N247" s="7"/>
     </row>
-    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B248" s="5" t="s">
         <v>17</v>
       </c>
@@ -8441,7 +8444,7 @@
       <c r="M248" s="6"/>
       <c r="N248" s="7"/>
     </row>
-    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B249" s="5" t="s">
         <v>17</v>
       </c>
@@ -8472,7 +8475,7 @@
       <c r="M249" s="6"/>
       <c r="N249" s="7"/>
     </row>
-    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B250" s="5" t="s">
         <v>17</v>
       </c>
@@ -8503,7 +8506,7 @@
       <c r="M250" s="6"/>
       <c r="N250" s="7"/>
     </row>
-    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B251" s="5" t="s">
         <v>8</v>
       </c>
@@ -8534,7 +8537,7 @@
       <c r="M251" s="6"/>
       <c r="N251" s="7"/>
     </row>
-    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B252" s="5" t="s">
         <v>8</v>
       </c>
@@ -8565,7 +8568,7 @@
       <c r="M252" s="6"/>
       <c r="N252" s="7"/>
     </row>
-    <row r="253" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B253" s="5" t="s">
         <v>17</v>
       </c>
@@ -8596,7 +8599,7 @@
       <c r="M253" s="6"/>
       <c r="N253" s="7"/>
     </row>
-    <row r="254" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B254" s="5" t="s">
         <v>17</v>
       </c>
@@ -8627,7 +8630,7 @@
       <c r="M254" s="6"/>
       <c r="N254" s="7"/>
     </row>
-    <row r="255" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B255" s="5" t="s">
         <v>8</v>
       </c>
@@ -8658,7 +8661,7 @@
       <c r="M255" s="6"/>
       <c r="N255" s="7"/>
     </row>
-    <row r="256" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B256" s="5" t="s">
         <v>8</v>
       </c>
@@ -8689,7 +8692,7 @@
       <c r="M256" s="6"/>
       <c r="N256" s="7"/>
     </row>
-    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B257" s="5" t="s">
         <v>17</v>
       </c>
@@ -8720,7 +8723,7 @@
       <c r="M257" s="6"/>
       <c r="N257" s="7"/>
     </row>
-    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B258" s="5" t="s">
         <v>17</v>
       </c>
@@ -8751,7 +8754,7 @@
       <c r="M258" s="6"/>
       <c r="N258" s="7"/>
     </row>
-    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B259" s="5" t="s">
         <v>8</v>
       </c>
@@ -8782,7 +8785,7 @@
       <c r="M259" s="6"/>
       <c r="N259" s="7"/>
     </row>
-    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B260" s="5" t="s">
         <v>8</v>
       </c>
@@ -8813,7 +8816,7 @@
       <c r="M260" s="6"/>
       <c r="N260" s="7"/>
     </row>
-    <row r="261" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B261" s="5" t="s">
         <v>17</v>
       </c>
@@ -8844,7 +8847,7 @@
       <c r="M261" s="6"/>
       <c r="N261" s="7"/>
     </row>
-    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B262" s="5" t="s">
         <v>8</v>
       </c>
@@ -8875,7 +8878,7 @@
       <c r="M262" s="6"/>
       <c r="N262" s="7"/>
     </row>
-    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B263" s="5" t="s">
         <v>8</v>
       </c>
@@ -8906,7 +8909,7 @@
       <c r="M263" s="6"/>
       <c r="N263" s="7"/>
     </row>
-    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B264" s="5" t="s">
         <v>8</v>
       </c>
@@ -8937,7 +8940,7 @@
       <c r="M264" s="6"/>
       <c r="N264" s="7"/>
     </row>
-    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B265" s="5" t="s">
         <v>17</v>
       </c>
@@ -8968,7 +8971,7 @@
       <c r="M265" s="6"/>
       <c r="N265" s="7"/>
     </row>
-    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B266" s="5" t="s">
         <v>8</v>
       </c>
@@ -8999,7 +9002,7 @@
       <c r="M266" s="6"/>
       <c r="N266" s="7"/>
     </row>
-    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B267" s="5" t="s">
         <v>8</v>
       </c>
@@ -9030,7 +9033,7 @@
       <c r="M267" s="6"/>
       <c r="N267" s="7"/>
     </row>
-    <row r="268" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B268" s="5" t="s">
         <v>17</v>
       </c>
@@ -9061,7 +9064,7 @@
       <c r="M268" s="6"/>
       <c r="N268" s="7"/>
     </row>
-    <row r="269" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B269" s="5" t="s">
         <v>17</v>
       </c>
@@ -9092,7 +9095,7 @@
       <c r="M269" s="6"/>
       <c r="N269" s="7"/>
     </row>
-    <row r="270" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B270" s="5" t="s">
         <v>8</v>
       </c>
@@ -9123,7 +9126,7 @@
       <c r="M270" s="6"/>
       <c r="N270" s="7"/>
     </row>
-    <row r="271" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B271" s="5" t="s">
         <v>8</v>
       </c>
@@ -9154,7 +9157,7 @@
       <c r="M271" s="6"/>
       <c r="N271" s="7"/>
     </row>
-    <row r="272" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B272" s="5" t="s">
         <v>8</v>
       </c>
@@ -9185,7 +9188,7 @@
       <c r="M272" s="6"/>
       <c r="N272" s="7"/>
     </row>
-    <row r="273" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B273" s="5" t="s">
         <v>8</v>
       </c>
@@ -9216,7 +9219,7 @@
       <c r="M273" s="6"/>
       <c r="N273" s="7"/>
     </row>
-    <row r="274" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B274" s="5" t="s">
         <v>17</v>
       </c>
@@ -9247,7 +9250,7 @@
       <c r="M274" s="6"/>
       <c r="N274" s="7"/>
     </row>
-    <row r="275" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B275" s="5" t="s">
         <v>17</v>
       </c>
@@ -9278,7 +9281,7 @@
       <c r="M275" s="6"/>
       <c r="N275" s="7"/>
     </row>
-    <row r="276" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B276" s="5" t="s">
         <v>8</v>
       </c>
@@ -9309,7 +9312,7 @@
       <c r="M276" s="6"/>
       <c r="N276" s="7"/>
     </row>
-    <row r="277" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B277" s="5" t="s">
         <v>8</v>
       </c>
@@ -9340,7 +9343,7 @@
       <c r="M277" s="6"/>
       <c r="N277" s="7"/>
     </row>
-    <row r="278" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B278" s="5" t="s">
         <v>17</v>
       </c>
@@ -9371,7 +9374,7 @@
       <c r="M278" s="6"/>
       <c r="N278" s="7"/>
     </row>
-    <row r="279" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B279" s="5" t="s">
         <v>17</v>
       </c>
@@ -9402,7 +9405,7 @@
       <c r="M279" s="6"/>
       <c r="N279" s="7"/>
     </row>
-    <row r="280" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B280" s="5" t="s">
         <v>8</v>
       </c>
@@ -9433,7 +9436,7 @@
       <c r="M280" s="6"/>
       <c r="N280" s="7"/>
     </row>
-    <row r="281" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B281" s="5" t="s">
         <v>8</v>
       </c>
@@ -9464,7 +9467,7 @@
       <c r="M281" s="6"/>
       <c r="N281" s="7"/>
     </row>
-    <row r="282" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B282" s="5" t="s">
         <v>8</v>
       </c>
@@ -9495,7 +9498,7 @@
       <c r="M282" s="6"/>
       <c r="N282" s="7"/>
     </row>
-    <row r="283" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B283" s="5" t="s">
         <v>17</v>
       </c>
@@ -9526,7 +9529,7 @@
       <c r="M283" s="6"/>
       <c r="N283" s="7"/>
     </row>
-    <row r="284" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B284" s="5" t="s">
         <v>17</v>
       </c>
@@ -9557,7 +9560,7 @@
       <c r="M284" s="6"/>
       <c r="N284" s="7"/>
     </row>
-    <row r="285" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B285" s="5" t="s">
         <v>17</v>
       </c>
@@ -9588,7 +9591,7 @@
       <c r="M285" s="6"/>
       <c r="N285" s="7"/>
     </row>
-    <row r="286" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B286" s="5" t="s">
         <v>8</v>
       </c>
@@ -9619,7 +9622,7 @@
       <c r="M286" s="6"/>
       <c r="N286" s="7"/>
     </row>
-    <row r="287" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B287" s="5" t="s">
         <v>8</v>
       </c>
@@ -9650,7 +9653,7 @@
       <c r="M287" s="6"/>
       <c r="N287" s="7"/>
     </row>
-    <row r="288" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B288" s="5" t="s">
         <v>8</v>
       </c>
@@ -9681,7 +9684,7 @@
       <c r="M288" s="6"/>
       <c r="N288" s="7"/>
     </row>
-    <row r="289" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B289" s="5" t="s">
         <v>17</v>
       </c>
@@ -9712,7 +9715,7 @@
       <c r="M289" s="6"/>
       <c r="N289" s="7"/>
     </row>
-    <row r="290" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B290" s="5" t="s">
         <v>17</v>
       </c>
@@ -9743,7 +9746,7 @@
       <c r="M290" s="6"/>
       <c r="N290" s="7"/>
     </row>
-    <row r="291" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B291" s="5" t="s">
         <v>8</v>
       </c>
@@ -9774,7 +9777,7 @@
       <c r="M291" s="6"/>
       <c r="N291" s="7"/>
     </row>
-    <row r="292" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B292" s="5" t="s">
         <v>17</v>
       </c>
@@ -9805,7 +9808,7 @@
       <c r="M292" s="6"/>
       <c r="N292" s="7"/>
     </row>
-    <row r="293" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B293" s="5" t="s">
         <v>17</v>
       </c>
@@ -9836,7 +9839,7 @@
       <c r="M293" s="6"/>
       <c r="N293" s="7"/>
     </row>
-    <row r="294" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B294" s="5" t="s">
         <v>17</v>
       </c>
@@ -9867,7 +9870,7 @@
       <c r="M294" s="6"/>
       <c r="N294" s="7"/>
     </row>
-    <row r="295" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B295" s="5" t="s">
         <v>17</v>
       </c>
@@ -9898,7 +9901,7 @@
       <c r="M295" s="6"/>
       <c r="N295" s="7"/>
     </row>
-    <row r="296" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B296" s="5" t="s">
         <v>17</v>
       </c>
@@ -9929,7 +9932,7 @@
       <c r="M296" s="6"/>
       <c r="N296" s="7"/>
     </row>
-    <row r="297" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B297" s="5" t="s">
         <v>8</v>
       </c>
@@ -9960,7 +9963,7 @@
       <c r="M297" s="6"/>
       <c r="N297" s="7"/>
     </row>
-    <row r="298" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B298" s="5" t="s">
         <v>17</v>
       </c>
@@ -9991,7 +9994,7 @@
       <c r="M298" s="6"/>
       <c r="N298" s="7"/>
     </row>
-    <row r="299" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B299" s="5" t="s">
         <v>17</v>
       </c>
@@ -10022,7 +10025,7 @@
       <c r="M299" s="6"/>
       <c r="N299" s="7"/>
     </row>
-    <row r="300" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B300" s="5" t="s">
         <v>17</v>
       </c>
@@ -10053,7 +10056,7 @@
       <c r="M300" s="6"/>
       <c r="N300" s="7"/>
     </row>
-    <row r="301" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B301" s="5" t="s">
         <v>17</v>
       </c>
@@ -10084,7 +10087,7 @@
       <c r="M301" s="6"/>
       <c r="N301" s="7"/>
     </row>
-    <row r="302" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B302" s="5" t="s">
         <v>17</v>
       </c>
@@ -10115,7 +10118,7 @@
       <c r="M302" s="6"/>
       <c r="N302" s="7"/>
     </row>
-    <row r="303" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B303" s="5" t="s">
         <v>17</v>
       </c>
@@ -10146,7 +10149,7 @@
       <c r="M303" s="6"/>
       <c r="N303" s="7"/>
     </row>
-    <row r="304" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B304" s="5" t="s">
         <v>17</v>
       </c>
@@ -10177,7 +10180,7 @@
       <c r="M304" s="6"/>
       <c r="N304" s="7"/>
     </row>
-    <row r="305" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B305" s="5" t="s">
         <v>17</v>
       </c>
@@ -10208,7 +10211,7 @@
       <c r="M305" s="6"/>
       <c r="N305" s="7"/>
     </row>
-    <row r="306" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B306" s="5" t="s">
         <v>8</v>
       </c>
@@ -10239,7 +10242,7 @@
       <c r="M306" s="6"/>
       <c r="N306" s="7"/>
     </row>
-    <row r="307" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B307" s="5" t="s">
         <v>17</v>
       </c>
@@ -10270,7 +10273,7 @@
       <c r="M307" s="6"/>
       <c r="N307" s="7"/>
     </row>
-    <row r="308" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B308" s="5" t="s">
         <v>8</v>
       </c>
@@ -10301,7 +10304,7 @@
       <c r="M308" s="6"/>
       <c r="N308" s="7"/>
     </row>
-    <row r="309" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B309" s="5" t="s">
         <v>17</v>
       </c>
@@ -10332,7 +10335,7 @@
       <c r="M309" s="6"/>
       <c r="N309" s="7"/>
     </row>
-    <row r="310" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B310" s="5" t="s">
         <v>17</v>
       </c>
@@ -10363,7 +10366,7 @@
       <c r="M310" s="6"/>
       <c r="N310" s="7"/>
     </row>
-    <row r="311" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B311" s="5" t="s">
         <v>17</v>
       </c>
@@ -10394,7 +10397,7 @@
       <c r="M311" s="6"/>
       <c r="N311" s="7"/>
     </row>
-    <row r="312" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B312" s="5" t="s">
         <v>8</v>
       </c>
@@ -10425,7 +10428,7 @@
       <c r="M312" s="6"/>
       <c r="N312" s="7"/>
     </row>
-    <row r="313" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B313" s="5" t="s">
         <v>8</v>
       </c>
@@ -10456,7 +10459,7 @@
       <c r="M313" s="6"/>
       <c r="N313" s="7"/>
     </row>
-    <row r="314" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B314" s="5" t="s">
         <v>8</v>
       </c>
@@ -10487,7 +10490,7 @@
       <c r="M314" s="6"/>
       <c r="N314" s="7"/>
     </row>
-    <row r="315" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B315" s="5" t="s">
         <v>17</v>
       </c>
@@ -10518,7 +10521,7 @@
       <c r="M315" s="6"/>
       <c r="N315" s="7"/>
     </row>
-    <row r="316" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B316" s="5" t="s">
         <v>17</v>
       </c>
@@ -10549,7 +10552,7 @@
       <c r="M316" s="6"/>
       <c r="N316" s="7"/>
     </row>
-    <row r="317" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B317" s="5" t="s">
         <v>8</v>
       </c>
@@ -10580,7 +10583,7 @@
       <c r="M317" s="6"/>
       <c r="N317" s="7"/>
     </row>
-    <row r="318" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B318" s="5" t="s">
         <v>8</v>
       </c>
@@ -10611,7 +10614,7 @@
       <c r="M318" s="6"/>
       <c r="N318" s="7"/>
     </row>
-    <row r="319" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B319" s="5" t="s">
         <v>17</v>
       </c>
@@ -10642,7 +10645,7 @@
       <c r="M319" s="6"/>
       <c r="N319" s="7"/>
     </row>
-    <row r="320" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B320" s="5" t="s">
         <v>8</v>
       </c>
@@ -10673,7 +10676,7 @@
       <c r="M320" s="6"/>
       <c r="N320" s="7"/>
     </row>
-    <row r="321" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B321" s="5" t="s">
         <v>17</v>
       </c>
@@ -10704,7 +10707,7 @@
       <c r="M321" s="6"/>
       <c r="N321" s="7"/>
     </row>
-    <row r="322" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B322" s="5" t="s">
         <v>17</v>
       </c>
@@ -10735,7 +10738,7 @@
       <c r="M322" s="6"/>
       <c r="N322" s="7"/>
     </row>
-    <row r="323" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B323" s="5" t="s">
         <v>8</v>
       </c>
@@ -10766,7 +10769,7 @@
       <c r="M323" s="6"/>
       <c r="N323" s="7"/>
     </row>
-    <row r="324" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B324" s="5" t="s">
         <v>8</v>
       </c>
@@ -10797,7 +10800,7 @@
       <c r="M324" s="6"/>
       <c r="N324" s="7"/>
     </row>
-    <row r="325" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B325" s="5" t="s">
         <v>8</v>
       </c>
@@ -10828,7 +10831,7 @@
       <c r="M325" s="6"/>
       <c r="N325" s="7"/>
     </row>
-    <row r="326" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B326" s="5" t="s">
         <v>8</v>
       </c>
@@ -10859,7 +10862,7 @@
       <c r="M326" s="6"/>
       <c r="N326" s="7"/>
     </row>
-    <row r="327" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B327" s="5" t="s">
         <v>8</v>
       </c>
@@ -10890,7 +10893,7 @@
       <c r="M327" s="6"/>
       <c r="N327" s="7"/>
     </row>
-    <row r="328" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B328" s="5" t="s">
         <v>8</v>
       </c>
@@ -10921,7 +10924,7 @@
       <c r="M328" s="6"/>
       <c r="N328" s="7"/>
     </row>
-    <row r="329" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B329" s="5" t="s">
         <v>8</v>
       </c>
@@ -10952,7 +10955,7 @@
       <c r="M329" s="6"/>
       <c r="N329" s="7"/>
     </row>
-    <row r="330" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B330" s="5" t="s">
         <v>17</v>
       </c>
@@ -10983,7 +10986,7 @@
       <c r="M330" s="6"/>
       <c r="N330" s="7"/>
     </row>
-    <row r="331" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B331" s="5" t="s">
         <v>17</v>
       </c>
@@ -11014,7 +11017,7 @@
       <c r="M331" s="6"/>
       <c r="N331" s="7"/>
     </row>
-    <row r="332" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B332" s="5" t="s">
         <v>17</v>
       </c>
@@ -11045,7 +11048,7 @@
       <c r="M332" s="6"/>
       <c r="N332" s="7"/>
     </row>
-    <row r="333" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B333" s="5" t="s">
         <v>8</v>
       </c>
@@ -11076,7 +11079,7 @@
       <c r="M333" s="6"/>
       <c r="N333" s="7"/>
     </row>
-    <row r="334" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B334" s="5" t="s">
         <v>17</v>
       </c>
@@ -11107,7 +11110,7 @@
       <c r="M334" s="6"/>
       <c r="N334" s="7"/>
     </row>
-    <row r="335" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B335" s="5" t="s">
         <v>17</v>
       </c>
@@ -11138,7 +11141,7 @@
       <c r="M335" s="6"/>
       <c r="N335" s="7"/>
     </row>
-    <row r="336" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B336" s="5" t="s">
         <v>17</v>
       </c>
@@ -11169,7 +11172,7 @@
       <c r="M336" s="6"/>
       <c r="N336" s="7"/>
     </row>
-    <row r="337" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B337" s="5" t="s">
         <v>17</v>
       </c>
@@ -11200,7 +11203,7 @@
       <c r="M337" s="6"/>
       <c r="N337" s="7"/>
     </row>
-    <row r="338" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B338" s="5" t="s">
         <v>8</v>
       </c>
@@ -11231,7 +11234,7 @@
       <c r="M338" s="6"/>
       <c r="N338" s="7"/>
     </row>
-    <row r="339" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B339" s="5" t="s">
         <v>8</v>
       </c>
@@ -11262,7 +11265,7 @@
       <c r="M339" s="6"/>
       <c r="N339" s="7"/>
     </row>
-    <row r="340" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B340" s="5" t="s">
         <v>17</v>
       </c>
@@ -11293,7 +11296,7 @@
       <c r="M340" s="6"/>
       <c r="N340" s="7"/>
     </row>
-    <row r="341" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B341" s="5" t="s">
         <v>17</v>
       </c>
@@ -11324,7 +11327,7 @@
       <c r="M341" s="6"/>
       <c r="N341" s="7"/>
     </row>
-    <row r="342" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B342" s="5" t="s">
         <v>8</v>
       </c>
@@ -11355,7 +11358,7 @@
       <c r="M342" s="6"/>
       <c r="N342" s="7"/>
     </row>
-    <row r="343" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B343" s="5" t="s">
         <v>8</v>
       </c>
@@ -11386,7 +11389,7 @@
       <c r="M343" s="6"/>
       <c r="N343" s="7"/>
     </row>
-    <row r="344" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B344" s="5" t="s">
         <v>17</v>
       </c>
@@ -11417,7 +11420,7 @@
       <c r="M344" s="6"/>
       <c r="N344" s="7"/>
     </row>
-    <row r="345" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B345" s="5" t="s">
         <v>8</v>
       </c>
@@ -11448,7 +11451,7 @@
       <c r="M345" s="6"/>
       <c r="N345" s="7"/>
     </row>
-    <row r="346" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B346" s="5" t="s">
         <v>8</v>
       </c>
@@ -11479,7 +11482,7 @@
       <c r="M346" s="6"/>
       <c r="N346" s="7"/>
     </row>
-    <row r="347" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B347" s="5" t="s">
         <v>17</v>
       </c>
@@ -11510,7 +11513,7 @@
       <c r="M347" s="6"/>
       <c r="N347" s="7"/>
     </row>
-    <row r="348" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B348" s="5" t="s">
         <v>17</v>
       </c>
@@ -11541,7 +11544,7 @@
       <c r="M348" s="6"/>
       <c r="N348" s="7"/>
     </row>
-    <row r="349" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B349" s="5" t="s">
         <v>8</v>
       </c>
@@ -11572,7 +11575,7 @@
       <c r="M349" s="6"/>
       <c r="N349" s="7"/>
     </row>
-    <row r="350" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B350" s="5" t="s">
         <v>17</v>
       </c>
@@ -11603,7 +11606,7 @@
       <c r="M350" s="6"/>
       <c r="N350" s="7"/>
     </row>
-    <row r="351" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B351" s="5" t="s">
         <v>8</v>
       </c>
@@ -11634,7 +11637,7 @@
       <c r="M351" s="6"/>
       <c r="N351" s="7"/>
     </row>
-    <row r="352" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B352" s="5" t="s">
         <v>17</v>
       </c>
@@ -11665,7 +11668,7 @@
       <c r="M352" s="6"/>
       <c r="N352" s="7"/>
     </row>
-    <row r="353" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B353" s="5" t="s">
         <v>17</v>
       </c>
@@ -11696,7 +11699,7 @@
       <c r="M353" s="6"/>
       <c r="N353" s="7"/>
     </row>
-    <row r="354" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B354" s="5" t="s">
         <v>8</v>
       </c>
@@ -11727,7 +11730,7 @@
       <c r="M354" s="6"/>
       <c r="N354" s="7"/>
     </row>
-    <row r="355" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B355" s="5" t="s">
         <v>17</v>
       </c>
@@ -11758,7 +11761,7 @@
       <c r="M355" s="6"/>
       <c r="N355" s="7"/>
     </row>
-    <row r="356" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B356" s="5" t="s">
         <v>8</v>
       </c>
@@ -11789,7 +11792,7 @@
       <c r="M356" s="6"/>
       <c r="N356" s="7"/>
     </row>
-    <row r="357" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B357" s="5" t="s">
         <v>8</v>
       </c>
@@ -11820,7 +11823,7 @@
       <c r="M357" s="6"/>
       <c r="N357" s="7"/>
     </row>
-    <row r="358" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B358" s="5" t="s">
         <v>8</v>
       </c>
@@ -11851,7 +11854,7 @@
       <c r="M358" s="6"/>
       <c r="N358" s="7"/>
     </row>
-    <row r="359" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B359" s="5" t="s">
         <v>8</v>
       </c>
@@ -11882,7 +11885,7 @@
       <c r="M359" s="6"/>
       <c r="N359" s="7"/>
     </row>
-    <row r="360" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B360" s="5" t="s">
         <v>17</v>
       </c>
@@ -11913,7 +11916,7 @@
       <c r="M360" s="6"/>
       <c r="N360" s="7"/>
     </row>
-    <row r="361" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B361" s="5" t="s">
         <v>8</v>
       </c>
@@ -11944,7 +11947,7 @@
       <c r="M361" s="6"/>
       <c r="N361" s="7"/>
     </row>
-    <row r="362" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B362" s="5" t="s">
         <v>17</v>
       </c>
@@ -11975,7 +11978,7 @@
       <c r="M362" s="6"/>
       <c r="N362" s="7"/>
     </row>
-    <row r="363" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B363" s="5" t="s">
         <v>8</v>
       </c>
@@ -12006,7 +12009,7 @@
       <c r="M363" s="6"/>
       <c r="N363" s="7"/>
     </row>
-    <row r="364" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B364" s="5" t="s">
         <v>8</v>
       </c>
@@ -12037,7 +12040,7 @@
       <c r="M364" s="6"/>
       <c r="N364" s="7"/>
     </row>
-    <row r="365" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B365" s="5" t="s">
         <v>17</v>
       </c>
@@ -12068,7 +12071,7 @@
       <c r="M365" s="6"/>
       <c r="N365" s="7"/>
     </row>
-    <row r="366" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B366" s="5" t="s">
         <v>8</v>
       </c>
@@ -12099,7 +12102,7 @@
       <c r="M366" s="6"/>
       <c r="N366" s="7"/>
     </row>
-    <row r="367" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B367" s="5" t="s">
         <v>8</v>
       </c>
@@ -12130,7 +12133,7 @@
       <c r="M367" s="6"/>
       <c r="N367" s="7"/>
     </row>
-    <row r="368" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B368" s="5" t="s">
         <v>17</v>
       </c>
@@ -12161,7 +12164,7 @@
       <c r="M368" s="6"/>
       <c r="N368" s="7"/>
     </row>
-    <row r="369" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B369" s="5" t="s">
         <v>17</v>
       </c>
@@ -12192,7 +12195,7 @@
       <c r="M369" s="6"/>
       <c r="N369" s="7"/>
     </row>
-    <row r="370" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B370" s="5" t="s">
         <v>17</v>
       </c>
@@ -12223,7 +12226,7 @@
       <c r="M370" s="6"/>
       <c r="N370" s="7"/>
     </row>
-    <row r="371" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B371" s="5" t="s">
         <v>17</v>
       </c>
@@ -12254,7 +12257,7 @@
       <c r="M371" s="6"/>
       <c r="N371" s="7"/>
     </row>
-    <row r="372" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B372" s="5" t="s">
         <v>8</v>
       </c>
@@ -12285,7 +12288,7 @@
       <c r="M372" s="6"/>
       <c r="N372" s="7"/>
     </row>
-    <row r="373" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B373" s="5" t="s">
         <v>8</v>
       </c>
@@ -12316,7 +12319,7 @@
       <c r="M373" s="6"/>
       <c r="N373" s="7"/>
     </row>
-    <row r="374" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B374" s="5" t="s">
         <v>17</v>
       </c>
@@ -12347,7 +12350,7 @@
       <c r="M374" s="6"/>
       <c r="N374" s="7"/>
     </row>
-    <row r="375" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B375" s="5" t="s">
         <v>8</v>
       </c>
@@ -12378,7 +12381,7 @@
       <c r="M375" s="6"/>
       <c r="N375" s="7"/>
     </row>
-    <row r="376" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B376" s="5" t="s">
         <v>17</v>
       </c>
@@ -12409,7 +12412,7 @@
       <c r="M376" s="6"/>
       <c r="N376" s="7"/>
     </row>
-    <row r="377" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B377" s="5" t="s">
         <v>8</v>
       </c>
@@ -12440,7 +12443,7 @@
       <c r="M377" s="6"/>
       <c r="N377" s="7"/>
     </row>
-    <row r="378" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B378" s="5" t="s">
         <v>8</v>
       </c>
@@ -12471,7 +12474,7 @@
       <c r="M378" s="6"/>
       <c r="N378" s="7"/>
     </row>
-    <row r="379" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B379" s="5" t="s">
         <v>17</v>
       </c>
@@ -12502,7 +12505,7 @@
       <c r="M379" s="6"/>
       <c r="N379" s="7"/>
     </row>
-    <row r="380" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B380" s="5" t="s">
         <v>8</v>
       </c>
@@ -12533,7 +12536,7 @@
       <c r="M380" s="6"/>
       <c r="N380" s="7"/>
     </row>
-    <row r="381" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B381" s="5" t="s">
         <v>8</v>
       </c>
@@ -12564,7 +12567,7 @@
       <c r="M381" s="6"/>
       <c r="N381" s="7"/>
     </row>
-    <row r="382" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B382" s="5" t="s">
         <v>8</v>
       </c>
@@ -12595,7 +12598,7 @@
       <c r="M382" s="6"/>
       <c r="N382" s="7"/>
     </row>
-    <row r="383" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B383" s="5" t="s">
         <v>17</v>
       </c>
@@ -12626,7 +12629,7 @@
       <c r="M383" s="6"/>
       <c r="N383" s="7"/>
     </row>
-    <row r="384" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B384" s="5" t="s">
         <v>8</v>
       </c>
@@ -12657,7 +12660,7 @@
       <c r="M384" s="6"/>
       <c r="N384" s="7"/>
     </row>
-    <row r="385" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B385" s="5" t="s">
         <v>17</v>
       </c>
@@ -12688,7 +12691,7 @@
       <c r="M385" s="6"/>
       <c r="N385" s="7"/>
     </row>
-    <row r="386" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B386" s="5" t="s">
         <v>17</v>
       </c>
@@ -12719,7 +12722,7 @@
       <c r="M386" s="6"/>
       <c r="N386" s="7"/>
     </row>
-    <row r="387" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B387" s="5" t="s">
         <v>8</v>
       </c>
@@ -12750,7 +12753,7 @@
       <c r="M387" s="6"/>
       <c r="N387" s="7"/>
     </row>
-    <row r="388" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B388" s="5" t="s">
         <v>8</v>
       </c>
@@ -12781,7 +12784,7 @@
       <c r="M388" s="6"/>
       <c r="N388" s="7"/>
     </row>
-    <row r="389" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B389" s="5" t="s">
         <v>8</v>
       </c>
@@ -12812,7 +12815,7 @@
       <c r="M389" s="6"/>
       <c r="N389" s="7"/>
     </row>
-    <row r="390" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B390" s="5" t="s">
         <v>8</v>
       </c>
@@ -12843,7 +12846,7 @@
       <c r="M390" s="6"/>
       <c r="N390" s="7"/>
     </row>
-    <row r="391" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B391" s="5" t="s">
         <v>8</v>
       </c>
@@ -12874,7 +12877,7 @@
       <c r="M391" s="6"/>
       <c r="N391" s="7"/>
     </row>
-    <row r="392" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B392" s="5" t="s">
         <v>8</v>
       </c>
@@ -12905,7 +12908,7 @@
       <c r="M392" s="6"/>
       <c r="N392" s="7"/>
     </row>
-    <row r="393" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B393" s="5" t="s">
         <v>17</v>
       </c>
@@ -12936,7 +12939,7 @@
       <c r="M393" s="6"/>
       <c r="N393" s="7"/>
     </row>
-    <row r="394" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B394" s="5" t="s">
         <v>17</v>
       </c>
@@ -12967,7 +12970,7 @@
       <c r="M394" s="6"/>
       <c r="N394" s="7"/>
     </row>
-    <row r="395" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B395" s="5" t="s">
         <v>8</v>
       </c>
@@ -12998,7 +13001,7 @@
       <c r="M395" s="6"/>
       <c r="N395" s="7"/>
     </row>
-    <row r="396" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B396" s="5" t="s">
         <v>17</v>
       </c>
@@ -13029,7 +13032,7 @@
       <c r="M396" s="6"/>
       <c r="N396" s="7"/>
     </row>
-    <row r="397" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B397" s="5" t="s">
         <v>17</v>
       </c>
@@ -13060,7 +13063,7 @@
       <c r="M397" s="6"/>
       <c r="N397" s="7"/>
     </row>
-    <row r="398" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B398" s="5" t="s">
         <v>8</v>
       </c>
@@ -13091,7 +13094,7 @@
       <c r="M398" s="6"/>
       <c r="N398" s="7"/>
     </row>
-    <row r="399" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B399" s="5" t="s">
         <v>17</v>
       </c>
@@ -13122,7 +13125,7 @@
       <c r="M399" s="6"/>
       <c r="N399" s="7"/>
     </row>
-    <row r="400" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B400" s="5" t="s">
         <v>8</v>
       </c>
@@ -13153,7 +13156,7 @@
       <c r="M400" s="6"/>
       <c r="N400" s="7"/>
     </row>
-    <row r="401" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B401" s="5" t="s">
         <v>8</v>
       </c>
@@ -13184,7 +13187,7 @@
       <c r="M401" s="6"/>
       <c r="N401" s="7"/>
     </row>
-    <row r="402" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B402" s="5" t="s">
         <v>17</v>
       </c>
@@ -13215,7 +13218,7 @@
       <c r="M402" s="6"/>
       <c r="N402" s="7"/>
     </row>
-    <row r="403" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B403" s="5" t="s">
         <v>17</v>
       </c>
@@ -13246,7 +13249,7 @@
       <c r="M403" s="6"/>
       <c r="N403" s="7"/>
     </row>
-    <row r="404" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B404" s="5" t="s">
         <v>8</v>
       </c>
@@ -13277,7 +13280,7 @@
       <c r="M404" s="6"/>
       <c r="N404" s="7"/>
     </row>
-    <row r="405" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B405" s="5" t="s">
         <v>17</v>
       </c>
@@ -13308,7 +13311,7 @@
       <c r="M405" s="6"/>
       <c r="N405" s="7"/>
     </row>
-    <row r="406" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B406" s="5" t="s">
         <v>8</v>
       </c>
@@ -13339,7 +13342,7 @@
       <c r="M406" s="6"/>
       <c r="N406" s="7"/>
     </row>
-    <row r="407" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B407" s="5" t="s">
         <v>8</v>
       </c>
@@ -13370,7 +13373,7 @@
       <c r="M407" s="6"/>
       <c r="N407" s="7"/>
     </row>
-    <row r="408" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B408" s="5" t="s">
         <v>8</v>
       </c>
@@ -13401,7 +13404,7 @@
       <c r="M408" s="6"/>
       <c r="N408" s="7"/>
     </row>
-    <row r="409" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B409" s="5" t="s">
         <v>8</v>
       </c>
@@ -13432,7 +13435,7 @@
       <c r="M409" s="6"/>
       <c r="N409" s="7"/>
     </row>
-    <row r="410" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B410" s="5" t="s">
         <v>17</v>
       </c>
@@ -13463,7 +13466,7 @@
       <c r="M410" s="6"/>
       <c r="N410" s="7"/>
     </row>
-    <row r="411" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B411" s="5" t="s">
         <v>8</v>
       </c>
@@ -13494,7 +13497,7 @@
       <c r="M411" s="6"/>
       <c r="N411" s="7"/>
     </row>
-    <row r="412" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B412" s="5" t="s">
         <v>8</v>
       </c>
@@ -13525,7 +13528,7 @@
       <c r="M412" s="6"/>
       <c r="N412" s="7"/>
     </row>
-    <row r="413" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B413" s="5" t="s">
         <v>17</v>
       </c>
@@ -13556,7 +13559,7 @@
       <c r="M413" s="6"/>
       <c r="N413" s="7"/>
     </row>
-    <row r="414" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B414" s="5" t="s">
         <v>8</v>
       </c>
@@ -13587,7 +13590,7 @@
       <c r="M414" s="6"/>
       <c r="N414" s="7"/>
     </row>
-    <row r="415" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B415" s="5" t="s">
         <v>17</v>
       </c>
@@ -13618,7 +13621,7 @@
       <c r="M415" s="6"/>
       <c r="N415" s="7"/>
     </row>
-    <row r="416" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B416" s="5" t="s">
         <v>17</v>
       </c>
@@ -13649,7 +13652,7 @@
       <c r="M416" s="6"/>
       <c r="N416" s="7"/>
     </row>
-    <row r="417" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B417" s="5" t="s">
         <v>17</v>
       </c>
@@ -13680,7 +13683,7 @@
       <c r="M417" s="6"/>
       <c r="N417" s="7"/>
     </row>
-    <row r="418" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B418" s="5" t="s">
         <v>8</v>
       </c>
@@ -13711,7 +13714,7 @@
       <c r="M418" s="6"/>
       <c r="N418" s="7"/>
     </row>
-    <row r="419" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B419" s="5" t="s">
         <v>17</v>
       </c>
@@ -13742,7 +13745,7 @@
       <c r="M419" s="6"/>
       <c r="N419" s="7"/>
     </row>
-    <row r="420" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B420" s="5" t="s">
         <v>17</v>
       </c>
@@ -13773,7 +13776,7 @@
       <c r="M420" s="6"/>
       <c r="N420" s="7"/>
     </row>
-    <row r="421" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B421" s="5" t="s">
         <v>17</v>
       </c>
@@ -13804,7 +13807,7 @@
       <c r="M421" s="6"/>
       <c r="N421" s="7"/>
     </row>
-    <row r="422" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B422" s="5" t="s">
         <v>17</v>
       </c>
@@ -13835,7 +13838,7 @@
       <c r="M422" s="6"/>
       <c r="N422" s="7"/>
     </row>
-    <row r="423" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B423" s="5" t="s">
         <v>17</v>
       </c>
@@ -13866,7 +13869,7 @@
       <c r="M423" s="6"/>
       <c r="N423" s="7"/>
     </row>
-    <row r="424" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B424" s="5" t="s">
         <v>8</v>
       </c>
@@ -13897,7 +13900,7 @@
       <c r="M424" s="6"/>
       <c r="N424" s="7"/>
     </row>
-    <row r="425" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B425" s="5" t="s">
         <v>8</v>
       </c>
@@ -13928,7 +13931,7 @@
       <c r="M425" s="6"/>
       <c r="N425" s="7"/>
     </row>
-    <row r="426" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B426" s="5" t="s">
         <v>8</v>
       </c>
@@ -13959,7 +13962,7 @@
       <c r="M426" s="6"/>
       <c r="N426" s="7"/>
     </row>
-    <row r="427" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B427" s="5" t="s">
         <v>8</v>
       </c>
@@ -13990,7 +13993,7 @@
       <c r="M427" s="6"/>
       <c r="N427" s="7"/>
     </row>
-    <row r="428" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B428" s="5" t="s">
         <v>17</v>
       </c>
@@ -14021,7 +14024,7 @@
       <c r="M428" s="6"/>
       <c r="N428" s="7"/>
     </row>
-    <row r="429" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B429" s="5" t="s">
         <v>8</v>
       </c>
@@ -14052,7 +14055,7 @@
       <c r="M429" s="6"/>
       <c r="N429" s="7"/>
     </row>
-    <row r="430" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B430" s="5" t="s">
         <v>17</v>
       </c>
@@ -14083,7 +14086,7 @@
       <c r="M430" s="6"/>
       <c r="N430" s="7"/>
     </row>
-    <row r="431" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B431" s="5" t="s">
         <v>17</v>
       </c>
@@ -14114,7 +14117,7 @@
       <c r="M431" s="6"/>
       <c r="N431" s="7"/>
     </row>
-    <row r="432" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B432" s="5" t="s">
         <v>17</v>
       </c>
@@ -14145,7 +14148,7 @@
       <c r="M432" s="6"/>
       <c r="N432" s="7"/>
     </row>
-    <row r="433" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B433" s="5" t="s">
         <v>17</v>
       </c>
@@ -14176,7 +14179,7 @@
       <c r="M433" s="6"/>
       <c r="N433" s="7"/>
     </row>
-    <row r="434" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B434" s="5" t="s">
         <v>17</v>
       </c>
@@ -14207,7 +14210,7 @@
       <c r="M434" s="6"/>
       <c r="N434" s="7"/>
     </row>
-    <row r="435" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B435" s="5" t="s">
         <v>8</v>
       </c>
@@ -14238,7 +14241,7 @@
       <c r="M435" s="6"/>
       <c r="N435" s="7"/>
     </row>
-    <row r="436" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B436" s="5" t="s">
         <v>17</v>
       </c>
@@ -14269,7 +14272,7 @@
       <c r="M436" s="6"/>
       <c r="N436" s="7"/>
     </row>
-    <row r="437" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B437" s="5" t="s">
         <v>8</v>
       </c>
@@ -14300,7 +14303,7 @@
       <c r="M437" s="6"/>
       <c r="N437" s="7"/>
     </row>
-    <row r="438" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B438" s="5" t="s">
         <v>17</v>
       </c>
@@ -14331,7 +14334,7 @@
       <c r="M438" s="6"/>
       <c r="N438" s="7"/>
     </row>
-    <row r="439" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B439" s="5" t="s">
         <v>17</v>
       </c>
@@ -14362,7 +14365,7 @@
       <c r="M439" s="6"/>
       <c r="N439" s="7"/>
     </row>
-    <row r="440" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B440" s="5" t="s">
         <v>17</v>
       </c>
@@ -14393,7 +14396,7 @@
       <c r="M440" s="6"/>
       <c r="N440" s="7"/>
     </row>
-    <row r="441" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B441" s="5" t="s">
         <v>17</v>
       </c>
@@ -14424,7 +14427,7 @@
       <c r="M441" s="6"/>
       <c r="N441" s="7"/>
     </row>
-    <row r="442" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B442" s="5" t="s">
         <v>17</v>
       </c>
@@ -14455,7 +14458,7 @@
       <c r="M442" s="6"/>
       <c r="N442" s="7"/>
     </row>
-    <row r="443" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B443" s="5" t="s">
         <v>17</v>
       </c>
@@ -14486,7 +14489,7 @@
       <c r="M443" s="6"/>
       <c r="N443" s="7"/>
     </row>
-    <row r="444" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B444" s="5" t="s">
         <v>8</v>
       </c>
@@ -14517,7 +14520,7 @@
       <c r="M444" s="6"/>
       <c r="N444" s="7"/>
     </row>
-    <row r="445" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B445" s="5" t="s">
         <v>8</v>
       </c>
@@ -14548,7 +14551,7 @@
       <c r="M445" s="6"/>
       <c r="N445" s="7"/>
     </row>
-    <row r="446" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B446" s="5" t="s">
         <v>8</v>
       </c>
@@ -14579,7 +14582,7 @@
       <c r="M446" s="6"/>
       <c r="N446" s="7"/>
     </row>
-    <row r="447" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B447" s="5" t="s">
         <v>8</v>
       </c>
@@ -14610,7 +14613,7 @@
       <c r="M447" s="6"/>
       <c r="N447" s="7"/>
     </row>
-    <row r="448" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B448" s="5" t="s">
         <v>17</v>
       </c>
@@ -14641,7 +14644,7 @@
       <c r="M448" s="6"/>
       <c r="N448" s="7"/>
     </row>
-    <row r="449" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B449" s="5" t="s">
         <v>8</v>
       </c>
@@ -14672,7 +14675,7 @@
       <c r="M449" s="6"/>
       <c r="N449" s="7"/>
     </row>
-    <row r="450" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B450" s="5" t="s">
         <v>17</v>
       </c>
@@ -14703,7 +14706,7 @@
       <c r="M450" s="6"/>
       <c r="N450" s="7"/>
     </row>
-    <row r="451" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B451" s="5" t="s">
         <v>17</v>
       </c>
@@ -14734,7 +14737,7 @@
       <c r="M451" s="6"/>
       <c r="N451" s="7"/>
     </row>
-    <row r="452" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B452" s="5" t="s">
         <v>17</v>
       </c>
@@ -14765,7 +14768,7 @@
       <c r="M452" s="6"/>
       <c r="N452" s="7"/>
     </row>
-    <row r="453" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B453" s="5" t="s">
         <v>17</v>
       </c>
@@ -14796,7 +14799,7 @@
       <c r="M453" s="6"/>
       <c r="N453" s="7"/>
     </row>
-    <row r="454" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B454" s="5" t="s">
         <v>8</v>
       </c>
@@ -14827,7 +14830,7 @@
       <c r="M454" s="6"/>
       <c r="N454" s="7"/>
     </row>
-    <row r="455" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B455" s="5" t="s">
         <v>8</v>
       </c>
@@ -14858,7 +14861,7 @@
       <c r="M455" s="6"/>
       <c r="N455" s="7"/>
     </row>
-    <row r="456" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B456" s="5" t="s">
         <v>8</v>
       </c>
@@ -14889,7 +14892,7 @@
       <c r="M456" s="6"/>
       <c r="N456" s="7"/>
     </row>
-    <row r="457" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B457" s="5" t="s">
         <v>17</v>
       </c>
@@ -14920,7 +14923,7 @@
       <c r="M457" s="6"/>
       <c r="N457" s="7"/>
     </row>
-    <row r="458" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B458" s="5" t="s">
         <v>8</v>
       </c>
@@ -14951,7 +14954,7 @@
       <c r="M458" s="6"/>
       <c r="N458" s="7"/>
     </row>
-    <row r="459" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B459" s="5" t="s">
         <v>17</v>
       </c>
@@ -14982,7 +14985,7 @@
       <c r="M459" s="6"/>
       <c r="N459" s="7"/>
     </row>
-    <row r="460" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B460" s="5" t="s">
         <v>8</v>
       </c>
@@ -15013,7 +15016,7 @@
       <c r="M460" s="6"/>
       <c r="N460" s="7"/>
     </row>
-    <row r="461" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B461" s="5" t="s">
         <v>17</v>
       </c>
@@ -15044,7 +15047,7 @@
       <c r="M461" s="6"/>
       <c r="N461" s="7"/>
     </row>
-    <row r="462" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B462" s="5" t="s">
         <v>8</v>
       </c>
@@ -15075,7 +15078,7 @@
       <c r="M462" s="6"/>
       <c r="N462" s="7"/>
     </row>
-    <row r="463" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B463" s="5" t="s">
         <v>17</v>
       </c>
@@ -15106,7 +15109,7 @@
       <c r="M463" s="6"/>
       <c r="N463" s="7"/>
     </row>
-    <row r="464" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B464" s="5" t="s">
         <v>17</v>
       </c>
@@ -15137,7 +15140,7 @@
       <c r="M464" s="6"/>
       <c r="N464" s="7"/>
     </row>
-    <row r="465" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B465" s="5" t="s">
         <v>17</v>
       </c>
@@ -15168,7 +15171,7 @@
       <c r="M465" s="6"/>
       <c r="N465" s="7"/>
     </row>
-    <row r="466" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B466" s="5" t="s">
         <v>8</v>
       </c>
@@ -15199,7 +15202,7 @@
       <c r="M466" s="6"/>
       <c r="N466" s="7"/>
     </row>
-    <row r="467" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B467" s="5" t="s">
         <v>8</v>
       </c>
@@ -15230,7 +15233,7 @@
       <c r="M467" s="6"/>
       <c r="N467" s="7"/>
     </row>
-    <row r="468" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B468" s="5" t="s">
         <v>17</v>
       </c>
@@ -15261,7 +15264,7 @@
       <c r="M468" s="6"/>
       <c r="N468" s="7"/>
     </row>
-    <row r="469" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B469" s="5" t="s">
         <v>8</v>
       </c>
@@ -15292,7 +15295,7 @@
       <c r="M469" s="6"/>
       <c r="N469" s="7"/>
     </row>
-    <row r="470" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B470" s="5" t="s">
         <v>8</v>
       </c>
@@ -15323,7 +15326,7 @@
       <c r="M470" s="6"/>
       <c r="N470" s="7"/>
     </row>
-    <row r="471" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B471" s="5" t="s">
         <v>17</v>
       </c>
@@ -15354,7 +15357,7 @@
       <c r="M471" s="6"/>
       <c r="N471" s="7"/>
     </row>
-    <row r="472" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B472" s="5" t="s">
         <v>8</v>
       </c>
@@ -15385,7 +15388,7 @@
       <c r="M472" s="6"/>
       <c r="N472" s="7"/>
     </row>
-    <row r="473" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B473" s="5" t="s">
         <v>17</v>
       </c>
@@ -15416,7 +15419,7 @@
       <c r="M473" s="6"/>
       <c r="N473" s="7"/>
     </row>
-    <row r="474" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B474" s="5" t="s">
         <v>8</v>
       </c>
@@ -15447,7 +15450,7 @@
       <c r="M474" s="6"/>
       <c r="N474" s="7"/>
     </row>
-    <row r="475" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B475" s="5" t="s">
         <v>8</v>
       </c>
@@ -15478,7 +15481,7 @@
       <c r="M475" s="6"/>
       <c r="N475" s="7"/>
     </row>
-    <row r="476" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B476" s="5" t="s">
         <v>8</v>
       </c>
@@ -15509,7 +15512,7 @@
       <c r="M476" s="6"/>
       <c r="N476" s="7"/>
     </row>
-    <row r="477" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B477" s="5" t="s">
         <v>8</v>
       </c>
@@ -15540,7 +15543,7 @@
       <c r="M477" s="6"/>
       <c r="N477" s="7"/>
     </row>
-    <row r="478" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B478" s="5" t="s">
         <v>8</v>
       </c>
@@ -15571,7 +15574,7 @@
       <c r="M478" s="6"/>
       <c r="N478" s="7"/>
     </row>
-    <row r="479" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B479" s="5" t="s">
         <v>8</v>
       </c>
@@ -15602,7 +15605,7 @@
       <c r="M479" s="6"/>
       <c r="N479" s="7"/>
     </row>
-    <row r="480" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B480" s="5" t="s">
         <v>17</v>
       </c>
@@ -15633,7 +15636,7 @@
       <c r="M480" s="6"/>
       <c r="N480" s="7"/>
     </row>
-    <row r="481" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B481" s="5" t="s">
         <v>17</v>
       </c>
@@ -15664,7 +15667,7 @@
       <c r="M481" s="6"/>
       <c r="N481" s="7"/>
     </row>
-    <row r="482" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B482" s="5" t="s">
         <v>8</v>
       </c>
@@ -15695,7 +15698,7 @@
       <c r="M482" s="6"/>
       <c r="N482" s="7"/>
     </row>
-    <row r="483" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B483" s="5" t="s">
         <v>17</v>
       </c>
@@ -15726,7 +15729,7 @@
       <c r="M483" s="6"/>
       <c r="N483" s="7"/>
     </row>
-    <row r="484" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B484" s="5" t="s">
         <v>17</v>
       </c>
@@ -15757,7 +15760,7 @@
       <c r="M484" s="6"/>
       <c r="N484" s="7"/>
     </row>
-    <row r="485" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B485" s="5" t="s">
         <v>8</v>
       </c>
@@ -15788,7 +15791,7 @@
       <c r="M485" s="6"/>
       <c r="N485" s="7"/>
     </row>
-    <row r="486" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B486" s="5" t="s">
         <v>17</v>
       </c>
@@ -15819,7 +15822,7 @@
       <c r="M486" s="6"/>
       <c r="N486" s="7"/>
     </row>
-    <row r="487" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B487" s="5" t="s">
         <v>17</v>
       </c>
@@ -15850,7 +15853,7 @@
       <c r="M487" s="6"/>
       <c r="N487" s="7"/>
     </row>
-    <row r="488" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B488" s="5" t="s">
         <v>8</v>
       </c>
@@ -15881,7 +15884,7 @@
       <c r="M488" s="6"/>
       <c r="N488" s="7"/>
     </row>
-    <row r="489" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B489" s="5" t="s">
         <v>17</v>
       </c>
@@ -15912,7 +15915,7 @@
       <c r="M489" s="6"/>
       <c r="N489" s="7"/>
     </row>
-    <row r="490" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B490" s="5" t="s">
         <v>17</v>
       </c>
@@ -15943,7 +15946,7 @@
       <c r="M490" s="6"/>
       <c r="N490" s="7"/>
     </row>
-    <row r="491" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B491" s="5" t="s">
         <v>8</v>
       </c>
@@ -15974,7 +15977,7 @@
       <c r="M491" s="6"/>
       <c r="N491" s="7"/>
     </row>
-    <row r="492" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B492" s="5" t="s">
         <v>17</v>
       </c>
@@ -16005,7 +16008,7 @@
       <c r="M492" s="6"/>
       <c r="N492" s="7"/>
     </row>
-    <row r="493" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B493" s="5" t="s">
         <v>17</v>
       </c>
@@ -16036,7 +16039,7 @@
       <c r="M493" s="6"/>
       <c r="N493" s="7"/>
     </row>
-    <row r="494" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B494" s="5" t="s">
         <v>8</v>
       </c>
@@ -16067,7 +16070,7 @@
       <c r="M494" s="6"/>
       <c r="N494" s="7"/>
     </row>
-    <row r="495" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B495" s="5" t="s">
         <v>8</v>
       </c>
@@ -16098,7 +16101,7 @@
       <c r="M495" s="6"/>
       <c r="N495" s="7"/>
     </row>
-    <row r="496" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B496" s="5" t="s">
         <v>8</v>
       </c>
@@ -16129,7 +16132,7 @@
       <c r="M496" s="6"/>
       <c r="N496" s="7"/>
     </row>
-    <row r="497" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B497" s="5" t="s">
         <v>8</v>
       </c>
@@ -16160,7 +16163,7 @@
       <c r="M497" s="6"/>
       <c r="N497" s="7"/>
     </row>
-    <row r="498" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B498" s="5" t="s">
         <v>8</v>
       </c>
@@ -16191,7 +16194,7 @@
       <c r="M498" s="6"/>
       <c r="N498" s="7"/>
     </row>
-    <row r="499" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B499" s="5" t="s">
         <v>17</v>
       </c>
@@ -16222,7 +16225,7 @@
       <c r="M499" s="6"/>
       <c r="N499" s="7"/>
     </row>
-    <row r="500" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B500" s="5" t="s">
         <v>8</v>
       </c>
@@ -16253,7 +16256,7 @@
       <c r="M500" s="6"/>
       <c r="N500" s="7"/>
     </row>
-    <row r="501" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B501" s="5" t="s">
         <v>8</v>
       </c>
@@ -16284,7 +16287,7 @@
       <c r="M501" s="6"/>
       <c r="N501" s="7"/>
     </row>
-    <row r="502" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B502" s="5" t="s">
         <v>8</v>
       </c>
@@ -16315,7 +16318,7 @@
       <c r="M502" s="6"/>
       <c r="N502" s="7"/>
     </row>
-    <row r="503" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B503" s="5" t="s">
         <v>17</v>
       </c>
@@ -16346,7 +16349,7 @@
       <c r="M503" s="6"/>
       <c r="N503" s="7"/>
     </row>
-    <row r="504" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B504" s="5" t="s">
         <v>8</v>
       </c>
@@ -16377,7 +16380,7 @@
       <c r="M504" s="6"/>
       <c r="N504" s="7"/>
     </row>
-    <row r="505" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B505" s="5" t="s">
         <v>8</v>
       </c>
@@ -16408,7 +16411,7 @@
       <c r="M505" s="6"/>
       <c r="N505" s="7"/>
     </row>
-    <row r="506" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B506" s="5" t="s">
         <v>17</v>
       </c>
@@ -16439,7 +16442,7 @@
       <c r="M506" s="6"/>
       <c r="N506" s="7"/>
     </row>
-    <row r="507" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B507" s="5" t="s">
         <v>8</v>
       </c>
@@ -16470,7 +16473,7 @@
       <c r="M507" s="6"/>
       <c r="N507" s="7"/>
     </row>
-    <row r="508" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B508" s="5" t="s">
         <v>8</v>
       </c>
@@ -16501,7 +16504,7 @@
       <c r="M508" s="6"/>
       <c r="N508" s="7"/>
     </row>
-    <row r="509" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B509" s="5" t="s">
         <v>8</v>
       </c>
@@ -16532,7 +16535,7 @@
       <c r="M509" s="6"/>
       <c r="N509" s="7"/>
     </row>
-    <row r="510" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B510" s="5" t="s">
         <v>17</v>
       </c>
@@ -16563,7 +16566,7 @@
       <c r="M510" s="6"/>
       <c r="N510" s="7"/>
     </row>
-    <row r="511" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B511" s="5" t="s">
         <v>17</v>
       </c>
@@ -16594,7 +16597,7 @@
       <c r="M511" s="6"/>
       <c r="N511" s="7"/>
     </row>
-    <row r="512" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B512" s="5" t="s">
         <v>17</v>
       </c>
@@ -16625,7 +16628,7 @@
       <c r="M512" s="6"/>
       <c r="N512" s="7"/>
     </row>
-    <row r="513" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B513" s="5" t="s">
         <v>8</v>
       </c>
@@ -16656,7 +16659,7 @@
       <c r="M513" s="6"/>
       <c r="N513" s="7"/>
     </row>
-    <row r="514" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B514" s="5" t="s">
         <v>17</v>
       </c>
@@ -16687,7 +16690,7 @@
       <c r="M514" s="6"/>
       <c r="N514" s="7"/>
     </row>
-    <row r="515" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B515" s="5" t="s">
         <v>17</v>
       </c>
@@ -16718,7 +16721,7 @@
       <c r="M515" s="6"/>
       <c r="N515" s="7"/>
     </row>
-    <row r="516" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B516" s="5" t="s">
         <v>17</v>
       </c>
@@ -16749,7 +16752,7 @@
       <c r="M516" s="6"/>
       <c r="N516" s="7"/>
     </row>
-    <row r="517" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B517" s="5" t="s">
         <v>8</v>
       </c>
@@ -16780,7 +16783,7 @@
       <c r="M517" s="6"/>
       <c r="N517" s="7"/>
     </row>
-    <row r="518" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B518" s="5" t="s">
         <v>8</v>
       </c>
@@ -16811,7 +16814,7 @@
       <c r="M518" s="6"/>
       <c r="N518" s="7"/>
     </row>
-    <row r="519" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B519" s="5" t="s">
         <v>8</v>
       </c>
@@ -16842,7 +16845,7 @@
       <c r="M519" s="6"/>
       <c r="N519" s="7"/>
     </row>
-    <row r="520" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B520" s="5" t="s">
         <v>8</v>
       </c>
@@ -16873,7 +16876,7 @@
       <c r="M520" s="6"/>
       <c r="N520" s="7"/>
     </row>
-    <row r="521" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B521" s="5" t="s">
         <v>8</v>
       </c>
@@ -16904,7 +16907,7 @@
       <c r="M521" s="6"/>
       <c r="N521" s="7"/>
     </row>
-    <row r="522" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B522" s="5" t="s">
         <v>8</v>
       </c>
@@ -16935,7 +16938,7 @@
       <c r="M522" s="6"/>
       <c r="N522" s="7"/>
     </row>
-    <row r="523" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B523" s="5" t="s">
         <v>8</v>
       </c>
@@ -16966,7 +16969,7 @@
       <c r="M523" s="6"/>
       <c r="N523" s="7"/>
     </row>
-    <row r="524" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B524" s="5" t="s">
         <v>17</v>
       </c>
@@ -16997,7 +17000,7 @@
       <c r="M524" s="6"/>
       <c r="N524" s="7"/>
     </row>
-    <row r="525" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B525" s="5" t="s">
         <v>8</v>
       </c>
@@ -17028,7 +17031,7 @@
       <c r="M525" s="6"/>
       <c r="N525" s="7"/>
     </row>
-    <row r="526" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B526" s="5" t="s">
         <v>17</v>
       </c>
@@ -17059,7 +17062,7 @@
       <c r="M526" s="6"/>
       <c r="N526" s="7"/>
     </row>
-    <row r="527" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B527" s="5" t="s">
         <v>17</v>
       </c>
@@ -17090,7 +17093,7 @@
       <c r="M527" s="6"/>
       <c r="N527" s="7"/>
     </row>
-    <row r="528" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B528" s="5" t="s">
         <v>17</v>
       </c>
@@ -17121,7 +17124,7 @@
       <c r="M528" s="6"/>
       <c r="N528" s="7"/>
     </row>
-    <row r="529" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B529" s="5" t="s">
         <v>17</v>
       </c>
@@ -17152,7 +17155,7 @@
       <c r="M529" s="6"/>
       <c r="N529" s="7"/>
     </row>
-    <row r="530" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B530" s="5" t="s">
         <v>17</v>
       </c>
@@ -17183,7 +17186,7 @@
       <c r="M530" s="6"/>
       <c r="N530" s="7"/>
     </row>
-    <row r="531" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B531" s="5" t="s">
         <v>8</v>
       </c>
@@ -17214,7 +17217,7 @@
       <c r="M531" s="6"/>
       <c r="N531" s="7"/>
     </row>
-    <row r="532" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B532" s="5" t="s">
         <v>8</v>
       </c>
@@ -17245,7 +17248,7 @@
       <c r="M532" s="6"/>
       <c r="N532" s="7"/>
     </row>
-    <row r="533" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B533" s="5" t="s">
         <v>8</v>
       </c>
@@ -17276,7 +17279,7 @@
       <c r="M533" s="6"/>
       <c r="N533" s="7"/>
     </row>
-    <row r="534" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B534" s="5" t="s">
         <v>8</v>
       </c>
@@ -17307,7 +17310,7 @@
       <c r="M534" s="6"/>
       <c r="N534" s="7"/>
     </row>
-    <row r="535" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B535" s="5" t="s">
         <v>8</v>
       </c>
@@ -17338,7 +17341,7 @@
       <c r="M535" s="6"/>
       <c r="N535" s="7"/>
     </row>
-    <row r="536" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B536" s="5" t="s">
         <v>17</v>
       </c>
@@ -17369,7 +17372,7 @@
       <c r="M536" s="6"/>
       <c r="N536" s="7"/>
     </row>
-    <row r="537" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B537" s="5" t="s">
         <v>8</v>
       </c>
@@ -17400,7 +17403,7 @@
       <c r="M537" s="6"/>
       <c r="N537" s="7"/>
     </row>
-    <row r="538" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B538" s="5" t="s">
         <v>17</v>
       </c>
@@ -17431,7 +17434,7 @@
       <c r="M538" s="6"/>
       <c r="N538" s="7"/>
     </row>
-    <row r="539" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B539" s="5" t="s">
         <v>8</v>
       </c>
@@ -17462,7 +17465,7 @@
       <c r="M539" s="6"/>
       <c r="N539" s="7"/>
     </row>
-    <row r="540" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B540" s="5" t="s">
         <v>17</v>
       </c>
@@ -17493,7 +17496,7 @@
       <c r="M540" s="6"/>
       <c r="N540" s="7"/>
     </row>
-    <row r="541" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B541" s="5" t="s">
         <v>8</v>
       </c>
@@ -17524,7 +17527,7 @@
       <c r="M541" s="6"/>
       <c r="N541" s="7"/>
     </row>
-    <row r="542" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B542" s="5" t="s">
         <v>17</v>
       </c>
@@ -17555,7 +17558,7 @@
       <c r="M542" s="6"/>
       <c r="N542" s="7"/>
     </row>
-    <row r="543" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B543" s="5" t="s">
         <v>17</v>
       </c>
@@ -17586,7 +17589,7 @@
       <c r="M543" s="6"/>
       <c r="N543" s="7"/>
     </row>
-    <row r="544" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B544" s="5" t="s">
         <v>17</v>
       </c>
@@ -17617,7 +17620,7 @@
       <c r="M544" s="6"/>
       <c r="N544" s="7"/>
     </row>
-    <row r="545" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B545" s="5" t="s">
         <v>17</v>
       </c>
@@ -17648,7 +17651,7 @@
       <c r="M545" s="6"/>
       <c r="N545" s="7"/>
     </row>
-    <row r="546" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B546" s="5" t="s">
         <v>8</v>
       </c>
@@ -17679,7 +17682,7 @@
       <c r="M546" s="6"/>
       <c r="N546" s="7"/>
     </row>
-    <row r="547" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B547" s="5" t="s">
         <v>8</v>
       </c>
@@ -17710,7 +17713,7 @@
       <c r="M547" s="6"/>
       <c r="N547" s="7"/>
     </row>
-    <row r="548" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B548" s="5" t="s">
         <v>8</v>
       </c>
@@ -17741,7 +17744,7 @@
       <c r="M548" s="6"/>
       <c r="N548" s="7"/>
     </row>
-    <row r="549" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B549" s="5" t="s">
         <v>17</v>
       </c>
@@ -17772,7 +17775,7 @@
       <c r="M549" s="6"/>
       <c r="N549" s="7"/>
     </row>
-    <row r="550" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B550" s="5" t="s">
         <v>8</v>
       </c>
@@ -17803,7 +17806,7 @@
       <c r="M550" s="6"/>
       <c r="N550" s="7"/>
     </row>
-    <row r="551" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B551" s="5" t="s">
         <v>17</v>
       </c>
@@ -17834,7 +17837,7 @@
       <c r="M551" s="6"/>
       <c r="N551" s="7"/>
     </row>
-    <row r="552" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B552" s="5" t="s">
         <v>8</v>
       </c>
@@ -17865,7 +17868,7 @@
       <c r="M552" s="6"/>
       <c r="N552" s="7"/>
     </row>
-    <row r="553" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B553" s="5" t="s">
         <v>17</v>
       </c>
@@ -17896,7 +17899,7 @@
       <c r="M553" s="6"/>
       <c r="N553" s="7"/>
     </row>
-    <row r="554" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B554" s="5" t="s">
         <v>17</v>
       </c>
@@ -17927,7 +17930,7 @@
       <c r="M554" s="6"/>
       <c r="N554" s="7"/>
     </row>
-    <row r="555" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B555" s="5" t="s">
         <v>17</v>
       </c>
@@ -17958,7 +17961,7 @@
       <c r="M555" s="6"/>
       <c r="N555" s="7"/>
     </row>
-    <row r="556" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B556" s="5" t="s">
         <v>8</v>
       </c>
@@ -17989,7 +17992,7 @@
       <c r="M556" s="6"/>
       <c r="N556" s="7"/>
     </row>
-    <row r="557" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B557" s="5" t="s">
         <v>17</v>
       </c>
@@ -18020,7 +18023,7 @@
       <c r="M557" s="6"/>
       <c r="N557" s="7"/>
     </row>
-    <row r="558" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B558" s="5" t="s">
         <v>17</v>
       </c>
@@ -18051,7 +18054,7 @@
       <c r="M558" s="6"/>
       <c r="N558" s="7"/>
     </row>
-    <row r="559" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B559" s="5" t="s">
         <v>8</v>
       </c>
@@ -18082,7 +18085,7 @@
       <c r="M559" s="6"/>
       <c r="N559" s="7"/>
     </row>
-    <row r="560" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B560" s="5" t="s">
         <v>8</v>
       </c>
@@ -18113,7 +18116,7 @@
       <c r="M560" s="6"/>
       <c r="N560" s="7"/>
     </row>
-    <row r="561" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B561" s="5" t="s">
         <v>17</v>
       </c>
@@ -18144,7 +18147,7 @@
       <c r="M561" s="6"/>
       <c r="N561" s="7"/>
     </row>
-    <row r="562" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B562" s="5" t="s">
         <v>8</v>
       </c>
@@ -18175,7 +18178,7 @@
       <c r="M562" s="6"/>
       <c r="N562" s="7"/>
     </row>
-    <row r="563" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B563" s="5" t="s">
         <v>17</v>
       </c>
@@ -18206,7 +18209,7 @@
       <c r="M563" s="6"/>
       <c r="N563" s="7"/>
     </row>
-    <row r="564" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B564" s="5" t="s">
         <v>8</v>
       </c>
@@ -18237,7 +18240,7 @@
       <c r="M564" s="6"/>
       <c r="N564" s="7"/>
     </row>
-    <row r="565" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B565" s="5" t="s">
         <v>8</v>
       </c>
@@ -18268,7 +18271,7 @@
       <c r="M565" s="6"/>
       <c r="N565" s="7"/>
     </row>
-    <row r="566" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B566" s="5" t="s">
         <v>17</v>
       </c>
@@ -18299,7 +18302,7 @@
       <c r="M566" s="6"/>
       <c r="N566" s="7"/>
     </row>
-    <row r="567" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B567" s="5" t="s">
         <v>8</v>
       </c>
@@ -18330,7 +18333,7 @@
       <c r="M567" s="6"/>
       <c r="N567" s="7"/>
     </row>
-    <row r="568" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B568" s="5" t="s">
         <v>17</v>
       </c>
@@ -18361,7 +18364,7 @@
       <c r="M568" s="6"/>
       <c r="N568" s="7"/>
     </row>
-    <row r="569" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B569" s="5" t="s">
         <v>17</v>
       </c>
@@ -18392,7 +18395,7 @@
       <c r="M569" s="6"/>
       <c r="N569" s="7"/>
     </row>
-    <row r="570" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B570" s="5" t="s">
         <v>8</v>
       </c>
@@ -18423,7 +18426,7 @@
       <c r="M570" s="6"/>
       <c r="N570" s="7"/>
     </row>
-    <row r="571" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B571" s="5" t="s">
         <v>8</v>
       </c>
@@ -18454,7 +18457,7 @@
       <c r="M571" s="6"/>
       <c r="N571" s="7"/>
     </row>
-    <row r="572" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B572" s="5" t="s">
         <v>17</v>
       </c>
@@ -18485,7 +18488,7 @@
       <c r="M572" s="6"/>
       <c r="N572" s="7"/>
     </row>
-    <row r="573" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B573" s="5" t="s">
         <v>17</v>
       </c>
@@ -18516,7 +18519,7 @@
       <c r="M573" s="6"/>
       <c r="N573" s="7"/>
     </row>
-    <row r="574" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B574" s="5" t="s">
         <v>17</v>
       </c>
@@ -18547,7 +18550,7 @@
       <c r="M574" s="6"/>
       <c r="N574" s="7"/>
     </row>
-    <row r="575" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B575" s="5" t="s">
         <v>17</v>
       </c>
@@ -18578,7 +18581,7 @@
       <c r="M575" s="6"/>
       <c r="N575" s="7"/>
     </row>
-    <row r="576" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B576" s="5" t="s">
         <v>8</v>
       </c>
@@ -18609,7 +18612,7 @@
       <c r="M576" s="6"/>
       <c r="N576" s="7"/>
     </row>
-    <row r="577" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B577" s="5" t="s">
         <v>8</v>
       </c>
@@ -18640,7 +18643,7 @@
       <c r="M577" s="6"/>
       <c r="N577" s="7"/>
     </row>
-    <row r="578" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B578" s="5" t="s">
         <v>8</v>
       </c>
@@ -18671,7 +18674,7 @@
       <c r="M578" s="6"/>
       <c r="N578" s="7"/>
     </row>
-    <row r="579" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B579" s="5" t="s">
         <v>17</v>
       </c>
@@ -18702,7 +18705,7 @@
       <c r="M579" s="6"/>
       <c r="N579" s="7"/>
     </row>
-    <row r="580" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B580" s="5" t="s">
         <v>17</v>
       </c>
@@ -18733,7 +18736,7 @@
       <c r="M580" s="6"/>
       <c r="N580" s="7"/>
     </row>
-    <row r="581" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B581" s="5" t="s">
         <v>8</v>
       </c>
@@ -18764,7 +18767,7 @@
       <c r="M581" s="6"/>
       <c r="N581" s="7"/>
     </row>
-    <row r="582" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B582" s="5" t="s">
         <v>8</v>
       </c>
@@ -18795,7 +18798,7 @@
       <c r="M582" s="6"/>
       <c r="N582" s="7"/>
     </row>
-    <row r="583" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B583" s="5" t="s">
         <v>8</v>
       </c>
@@ -18826,7 +18829,7 @@
       <c r="M583" s="6"/>
       <c r="N583" s="7"/>
     </row>
-    <row r="584" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B584" s="5" t="s">
         <v>8</v>
       </c>
@@ -18857,7 +18860,7 @@
       <c r="M584" s="6"/>
       <c r="N584" s="7"/>
     </row>
-    <row r="585" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B585" s="5" t="s">
         <v>8</v>
       </c>
@@ -18888,7 +18891,7 @@
       <c r="M585" s="6"/>
       <c r="N585" s="7"/>
     </row>
-    <row r="586" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B586" s="5" t="s">
         <v>8</v>
       </c>
@@ -18919,7 +18922,7 @@
       <c r="M586" s="6"/>
       <c r="N586" s="7"/>
     </row>
-    <row r="587" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B587" s="5" t="s">
         <v>8</v>
       </c>
@@ -18950,7 +18953,7 @@
       <c r="M587" s="6"/>
       <c r="N587" s="7"/>
     </row>
-    <row r="588" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B588" s="5" t="s">
         <v>8</v>
       </c>
@@ -18981,7 +18984,7 @@
       <c r="M588" s="6"/>
       <c r="N588" s="7"/>
     </row>
-    <row r="589" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B589" s="5" t="s">
         <v>8</v>
       </c>
@@ -19012,7 +19015,7 @@
       <c r="M589" s="6"/>
       <c r="N589" s="7"/>
     </row>
-    <row r="590" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B590" s="5" t="s">
         <v>8</v>
       </c>
@@ -19043,7 +19046,7 @@
       <c r="M590" s="6"/>
       <c r="N590" s="7"/>
     </row>
-    <row r="591" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B591" s="5" t="s">
         <v>8</v>
       </c>
@@ -19074,7 +19077,7 @@
       <c r="M591" s="6"/>
       <c r="N591" s="7"/>
     </row>
-    <row r="592" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B592" s="5" t="s">
         <v>8</v>
       </c>
@@ -19105,7 +19108,7 @@
       <c r="M592" s="6"/>
       <c r="N592" s="7"/>
     </row>
-    <row r="593" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B593" s="5" t="s">
         <v>8</v>
       </c>
@@ -19136,7 +19139,7 @@
       <c r="M593" s="6"/>
       <c r="N593" s="7"/>
     </row>
-    <row r="594" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B594" s="5" t="s">
         <v>17</v>
       </c>
@@ -19167,7 +19170,7 @@
       <c r="M594" s="6"/>
       <c r="N594" s="7"/>
     </row>
-    <row r="595" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B595" s="5" t="s">
         <v>17</v>
       </c>
@@ -19198,7 +19201,7 @@
       <c r="M595" s="6"/>
       <c r="N595" s="7"/>
     </row>
-    <row r="596" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B596" s="5" t="s">
         <v>17</v>
       </c>
@@ -19229,7 +19232,7 @@
       <c r="M596" s="6"/>
       <c r="N596" s="7"/>
     </row>
-    <row r="597" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B597" s="5" t="s">
         <v>8</v>
       </c>
@@ -19260,7 +19263,7 @@
       <c r="M597" s="6"/>
       <c r="N597" s="7"/>
     </row>
-    <row r="598" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B598" s="5" t="s">
         <v>8</v>
       </c>
@@ -19291,7 +19294,7 @@
       <c r="M598" s="6"/>
       <c r="N598" s="7"/>
     </row>
-    <row r="599" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B599" s="5" t="s">
         <v>8</v>
       </c>
@@ -19322,7 +19325,7 @@
       <c r="M599" s="6"/>
       <c r="N599" s="7"/>
     </row>
-    <row r="600" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B600" s="5" t="s">
         <v>17</v>
       </c>
@@ -19353,7 +19356,7 @@
       <c r="M600" s="6"/>
       <c r="N600" s="7"/>
     </row>
-    <row r="601" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B601" s="5" t="s">
         <v>17</v>
       </c>
@@ -19384,7 +19387,7 @@
       <c r="M601" s="6"/>
       <c r="N601" s="7"/>
     </row>
-    <row r="602" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B602" s="5" t="s">
         <v>8</v>
       </c>
@@ -19415,7 +19418,7 @@
       <c r="M602" s="6"/>
       <c r="N602" s="7"/>
     </row>
-    <row r="603" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B603" s="5" t="s">
         <v>8</v>
       </c>
@@ -19446,7 +19449,7 @@
       <c r="M603" s="6"/>
       <c r="N603" s="7"/>
     </row>
-    <row r="604" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B604" s="5" t="s">
         <v>8</v>
       </c>
@@ -19477,7 +19480,7 @@
       <c r="M604" s="6"/>
       <c r="N604" s="7"/>
     </row>
-    <row r="605" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B605" s="5" t="s">
         <v>8</v>
       </c>
@@ -19508,7 +19511,7 @@
       <c r="M605" s="6"/>
       <c r="N605" s="7"/>
     </row>
-    <row r="606" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B606" s="5" t="s">
         <v>8</v>
       </c>
@@ -19539,7 +19542,7 @@
       <c r="M606" s="6"/>
       <c r="N606" s="7"/>
     </row>
-    <row r="607" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B607" s="5" t="s">
         <v>17</v>
       </c>
@@ -19570,7 +19573,7 @@
       <c r="M607" s="6"/>
       <c r="N607" s="7"/>
     </row>
-    <row r="608" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B608" s="5" t="s">
         <v>17</v>
       </c>
@@ -19601,7 +19604,7 @@
       <c r="M608" s="6"/>
       <c r="N608" s="7"/>
     </row>
-    <row r="609" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B609" s="5" t="s">
         <v>17</v>
       </c>
@@ -19632,7 +19635,7 @@
       <c r="M609" s="6"/>
       <c r="N609" s="7"/>
     </row>
-    <row r="610" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B610" s="5" t="s">
         <v>8</v>
       </c>
@@ -19663,7 +19666,7 @@
       <c r="M610" s="6"/>
       <c r="N610" s="7"/>
     </row>
-    <row r="611" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B611" s="5" t="s">
         <v>8</v>
       </c>
@@ -19694,7 +19697,7 @@
       <c r="M611" s="6"/>
       <c r="N611" s="7"/>
     </row>
-    <row r="612" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B612" s="5" t="s">
         <v>8</v>
       </c>
@@ -19725,7 +19728,7 @@
       <c r="M612" s="6"/>
       <c r="N612" s="7"/>
     </row>
-    <row r="613" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B613" s="5" t="s">
         <v>8</v>
       </c>
@@ -19756,7 +19759,7 @@
       <c r="M613" s="6"/>
       <c r="N613" s="7"/>
     </row>
-    <row r="614" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B614" s="5" t="s">
         <v>17</v>
       </c>
@@ -19787,7 +19790,7 @@
       <c r="M614" s="6"/>
       <c r="N614" s="7"/>
     </row>
-    <row r="615" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B615" s="5" t="s">
         <v>8</v>
       </c>
@@ -19818,7 +19821,7 @@
       <c r="M615" s="6"/>
       <c r="N615" s="7"/>
     </row>
-    <row r="616" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B616" s="5" t="s">
         <v>17</v>
       </c>
@@ -19849,7 +19852,7 @@
       <c r="M616" s="6"/>
       <c r="N616" s="7"/>
     </row>
-    <row r="617" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B617" s="5" t="s">
         <v>8</v>
       </c>
@@ -19880,7 +19883,7 @@
       <c r="M617" s="6"/>
       <c r="N617" s="7"/>
     </row>
-    <row r="618" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B618" s="5" t="s">
         <v>8</v>
       </c>
@@ -19911,7 +19914,7 @@
       <c r="M618" s="6"/>
       <c r="N618" s="7"/>
     </row>
-    <row r="619" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B619" s="5" t="s">
         <v>8</v>
       </c>
@@ -19942,7 +19945,7 @@
       <c r="M619" s="6"/>
       <c r="N619" s="7"/>
     </row>
-    <row r="620" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B620" s="5" t="s">
         <v>8</v>
       </c>
@@ -19973,7 +19976,7 @@
       <c r="M620" s="6"/>
       <c r="N620" s="7"/>
     </row>
-    <row r="621" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B621" s="5" t="s">
         <v>17</v>
       </c>
@@ -20004,7 +20007,7 @@
       <c r="M621" s="6"/>
       <c r="N621" s="7"/>
     </row>
-    <row r="622" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B622" s="5" t="s">
         <v>17</v>
       </c>
@@ -20035,7 +20038,7 @@
       <c r="M622" s="6"/>
       <c r="N622" s="7"/>
     </row>
-    <row r="623" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B623" s="5" t="s">
         <v>17</v>
       </c>
@@ -20066,7 +20069,7 @@
       <c r="M623" s="6"/>
       <c r="N623" s="7"/>
     </row>
-    <row r="624" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B624" s="5" t="s">
         <v>8</v>
       </c>
@@ -20097,7 +20100,7 @@
       <c r="M624" s="6"/>
       <c r="N624" s="7"/>
     </row>
-    <row r="625" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B625" s="5" t="s">
         <v>17</v>
       </c>
@@ -20128,7 +20131,7 @@
       <c r="M625" s="6"/>
       <c r="N625" s="7"/>
     </row>
-    <row r="626" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B626" s="5" t="s">
         <v>17</v>
       </c>
@@ -20159,7 +20162,7 @@
       <c r="M626" s="6"/>
       <c r="N626" s="7"/>
     </row>
-    <row r="627" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B627" s="5" t="s">
         <v>17</v>
       </c>
@@ -20190,7 +20193,7 @@
       <c r="M627" s="6"/>
       <c r="N627" s="7"/>
     </row>
-    <row r="628" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B628" s="5" t="s">
         <v>8</v>
       </c>
@@ -20221,7 +20224,7 @@
       <c r="M628" s="6"/>
       <c r="N628" s="7"/>
     </row>
-    <row r="629" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B629" s="5" t="s">
         <v>17</v>
       </c>
@@ -20252,7 +20255,7 @@
       <c r="M629" s="6"/>
       <c r="N629" s="7"/>
     </row>
-    <row r="630" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B630" s="5" t="s">
         <v>17</v>
       </c>
@@ -20283,7 +20286,7 @@
       <c r="M630" s="6"/>
       <c r="N630" s="7"/>
     </row>
-    <row r="631" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B631" s="5" t="s">
         <v>17</v>
       </c>
@@ -20314,7 +20317,7 @@
       <c r="M631" s="6"/>
       <c r="N631" s="7"/>
     </row>
-    <row r="632" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B632" s="5" t="s">
         <v>17</v>
       </c>
@@ -20345,7 +20348,7 @@
       <c r="M632" s="6"/>
       <c r="N632" s="7"/>
     </row>
-    <row r="633" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B633" s="5" t="s">
         <v>8</v>
       </c>
@@ -20376,7 +20379,7 @@
       <c r="M633" s="6"/>
       <c r="N633" s="7"/>
     </row>
-    <row r="634" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B634" s="5" t="s">
         <v>17</v>
       </c>
@@ -20407,7 +20410,7 @@
       <c r="M634" s="6"/>
       <c r="N634" s="7"/>
     </row>
-    <row r="635" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B635" s="5" t="s">
         <v>17</v>
       </c>
@@ -20438,7 +20441,7 @@
       <c r="M635" s="6"/>
       <c r="N635" s="7"/>
     </row>
-    <row r="636" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B636" s="5" t="s">
         <v>8</v>
       </c>
@@ -20469,7 +20472,7 @@
       <c r="M636" s="6"/>
       <c r="N636" s="7"/>
     </row>
-    <row r="637" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B637" s="5" t="s">
         <v>8</v>
       </c>
@@ -20500,7 +20503,7 @@
       <c r="M637" s="6"/>
       <c r="N637" s="7"/>
     </row>
-    <row r="638" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B638" s="5" t="s">
         <v>17</v>
       </c>
@@ -20531,7 +20534,7 @@
       <c r="M638" s="6"/>
       <c r="N638" s="7"/>
     </row>
-    <row r="639" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B639" s="5" t="s">
         <v>17</v>
       </c>
@@ -20562,7 +20565,7 @@
       <c r="M639" s="6"/>
       <c r="N639" s="7"/>
     </row>
-    <row r="640" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B640" s="5" t="s">
         <v>8</v>
       </c>
@@ -20593,7 +20596,7 @@
       <c r="M640" s="6"/>
       <c r="N640" s="7"/>
     </row>
-    <row r="641" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B641" s="5" t="s">
         <v>8</v>
       </c>
@@ -20624,7 +20627,7 @@
       <c r="M641" s="6"/>
       <c r="N641" s="7"/>
     </row>
-    <row r="642" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B642" s="5" t="s">
         <v>17</v>
       </c>
@@ -20655,7 +20658,7 @@
       <c r="M642" s="6"/>
       <c r="N642" s="7"/>
     </row>
-    <row r="643" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B643" s="5" t="s">
         <v>8</v>
       </c>
@@ -20686,7 +20689,7 @@
       <c r="M643" s="6"/>
       <c r="N643" s="7"/>
     </row>
-    <row r="644" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B644" s="5" t="s">
         <v>17</v>
       </c>
@@ -20717,7 +20720,7 @@
       <c r="M644" s="6"/>
       <c r="N644" s="7"/>
     </row>
-    <row r="645" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B645" s="5" t="s">
         <v>8</v>
       </c>
@@ -20748,7 +20751,7 @@
       <c r="M645" s="6"/>
       <c r="N645" s="7"/>
     </row>
-    <row r="646" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B646" s="5" t="s">
         <v>8</v>
       </c>
@@ -20779,7 +20782,7 @@
       <c r="M646" s="6"/>
       <c r="N646" s="7"/>
     </row>
-    <row r="647" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B647" s="5" t="s">
         <v>8</v>
       </c>
@@ -20810,7 +20813,7 @@
       <c r="M647" s="6"/>
       <c r="N647" s="7"/>
     </row>
-    <row r="648" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B648" s="5" t="s">
         <v>17</v>
       </c>
@@ -20841,7 +20844,7 @@
       <c r="M648" s="6"/>
       <c r="N648" s="7"/>
     </row>
-    <row r="649" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B649" s="5" t="s">
         <v>8</v>
       </c>
@@ -20872,7 +20875,7 @@
       <c r="M649" s="6"/>
       <c r="N649" s="7"/>
     </row>
-    <row r="650" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B650" s="5" t="s">
         <v>8</v>
       </c>
@@ -20903,7 +20906,7 @@
       <c r="M650" s="6"/>
       <c r="N650" s="7"/>
     </row>
-    <row r="651" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B651" s="5" t="s">
         <v>8</v>
       </c>
@@ -20934,7 +20937,7 @@
       <c r="M651" s="6"/>
       <c r="N651" s="7"/>
     </row>
-    <row r="652" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B652" s="5" t="s">
         <v>8</v>
       </c>
@@ -20965,7 +20968,7 @@
       <c r="M652" s="6"/>
       <c r="N652" s="7"/>
     </row>
-    <row r="653" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B653" s="5" t="s">
         <v>8</v>
       </c>
@@ -20996,7 +20999,7 @@
       <c r="M653" s="6"/>
       <c r="N653" s="7"/>
     </row>
-    <row r="654" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B654" s="5" t="s">
         <v>17</v>
       </c>
@@ -21027,7 +21030,7 @@
       <c r="M654" s="6"/>
       <c r="N654" s="7"/>
     </row>
-    <row r="655" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B655" s="5" t="s">
         <v>8</v>
       </c>
@@ -21058,7 +21061,7 @@
       <c r="M655" s="6"/>
       <c r="N655" s="7"/>
     </row>
-    <row r="656" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B656" s="5" t="s">
         <v>8</v>
       </c>
@@ -21089,7 +21092,7 @@
       <c r="M656" s="6"/>
       <c r="N656" s="7"/>
     </row>
-    <row r="657" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B657" s="5" t="s">
         <v>8</v>
       </c>
@@ -21120,7 +21123,7 @@
       <c r="M657" s="6"/>
       <c r="N657" s="7"/>
     </row>
-    <row r="658" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B658" s="5" t="s">
         <v>8</v>
       </c>
@@ -21151,7 +21154,7 @@
       <c r="M658" s="6"/>
       <c r="N658" s="7"/>
     </row>
-    <row r="659" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B659" s="5" t="s">
         <v>8</v>
       </c>
@@ -21182,7 +21185,7 @@
       <c r="M659" s="6"/>
       <c r="N659" s="7"/>
     </row>
-    <row r="660" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B660" s="5" t="s">
         <v>17</v>
       </c>
@@ -21213,7 +21216,7 @@
       <c r="M660" s="6"/>
       <c r="N660" s="7"/>
     </row>
-    <row r="661" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B661" s="5" t="s">
         <v>17</v>
       </c>
@@ -21244,7 +21247,7 @@
       <c r="M661" s="6"/>
       <c r="N661" s="7"/>
     </row>
-    <row r="662" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B662" s="5" t="s">
         <v>8</v>
       </c>
@@ -21275,7 +21278,7 @@
       <c r="M662" s="6"/>
       <c r="N662" s="7"/>
     </row>
-    <row r="663" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B663" s="5" t="s">
         <v>17</v>
       </c>
@@ -21306,7 +21309,7 @@
       <c r="M663" s="6"/>
       <c r="N663" s="7"/>
     </row>
-    <row r="664" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B664" s="5" t="s">
         <v>17</v>
       </c>
@@ -21337,7 +21340,7 @@
       <c r="M664" s="6"/>
       <c r="N664" s="7"/>
     </row>
-    <row r="665" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B665" s="5" t="s">
         <v>17</v>
       </c>
@@ -21368,7 +21371,7 @@
       <c r="M665" s="6"/>
       <c r="N665" s="7"/>
     </row>
-    <row r="666" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B666" s="5" t="s">
         <v>8</v>
       </c>
@@ -21399,7 +21402,7 @@
       <c r="M666" s="6"/>
       <c r="N666" s="7"/>
     </row>
-    <row r="667" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B667" s="5" t="s">
         <v>8</v>
       </c>
@@ -21430,7 +21433,7 @@
       <c r="M667" s="6"/>
       <c r="N667" s="7"/>
     </row>
-    <row r="668" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B668" s="5" t="s">
         <v>17</v>
       </c>
@@ -21461,7 +21464,7 @@
       <c r="M668" s="6"/>
       <c r="N668" s="7"/>
     </row>
-    <row r="669" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B669" s="5" t="s">
         <v>8</v>
       </c>
@@ -21492,7 +21495,7 @@
       <c r="M669" s="6"/>
       <c r="N669" s="7"/>
     </row>
-    <row r="670" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B670" s="5" t="s">
         <v>8</v>
       </c>
@@ -21523,7 +21526,7 @@
       <c r="M670" s="6"/>
       <c r="N670" s="7"/>
     </row>
-    <row r="671" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B671" s="5" t="s">
         <v>8</v>
       </c>
@@ -21554,7 +21557,7 @@
       <c r="M671" s="6"/>
       <c r="N671" s="7"/>
     </row>
-    <row r="672" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B672" s="5" t="s">
         <v>17</v>
       </c>
@@ -21585,7 +21588,7 @@
       <c r="M672" s="6"/>
       <c r="N672" s="7"/>
     </row>
-    <row r="673" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B673" s="5" t="s">
         <v>17</v>
       </c>
@@ -21616,7 +21619,7 @@
       <c r="M673" s="6"/>
       <c r="N673" s="7"/>
     </row>
-    <row r="674" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B674" s="5" t="s">
         <v>8</v>
       </c>
@@ -21647,7 +21650,7 @@
       <c r="M674" s="6"/>
       <c r="N674" s="7"/>
     </row>
-    <row r="675" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B675" s="5" t="s">
         <v>17</v>
       </c>
@@ -21678,7 +21681,7 @@
       <c r="M675" s="6"/>
       <c r="N675" s="7"/>
     </row>
-    <row r="676" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B676" s="5" t="s">
         <v>8</v>
       </c>
@@ -21709,7 +21712,7 @@
       <c r="M676" s="6"/>
       <c r="N676" s="7"/>
     </row>
-    <row r="677" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B677" s="5" t="s">
         <v>8</v>
       </c>
@@ -21740,7 +21743,7 @@
       <c r="M677" s="6"/>
       <c r="N677" s="7"/>
     </row>
-    <row r="678" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B678" s="5" t="s">
         <v>8</v>
       </c>
@@ -21771,7 +21774,7 @@
       <c r="M678" s="6"/>
       <c r="N678" s="7"/>
     </row>
-    <row r="679" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B679" s="5" t="s">
         <v>8</v>
       </c>
@@ -21802,7 +21805,7 @@
       <c r="M679" s="6"/>
       <c r="N679" s="7"/>
     </row>
-    <row r="680" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B680" s="5" t="s">
         <v>8</v>
       </c>
@@ -21833,7 +21836,7 @@
       <c r="M680" s="6"/>
       <c r="N680" s="7"/>
     </row>
-    <row r="681" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B681" s="5" t="s">
         <v>8</v>
       </c>
@@ -21864,7 +21867,7 @@
       <c r="M681" s="6"/>
       <c r="N681" s="7"/>
     </row>
-    <row r="682" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B682" s="5" t="s">
         <v>17</v>
       </c>
@@ -21895,7 +21898,7 @@
       <c r="M682" s="6"/>
       <c r="N682" s="7"/>
     </row>
-    <row r="683" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B683" s="5" t="s">
         <v>17</v>
       </c>
@@ -21926,7 +21929,7 @@
       <c r="M683" s="6"/>
       <c r="N683" s="7"/>
     </row>
-    <row r="684" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B684" s="5" t="s">
         <v>8</v>
       </c>
@@ -21957,7 +21960,7 @@
       <c r="M684" s="6"/>
       <c r="N684" s="7"/>
     </row>
-    <row r="685" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B685" s="5" t="s">
         <v>17</v>
       </c>
@@ -21988,7 +21991,7 @@
       <c r="M685" s="6"/>
       <c r="N685" s="7"/>
     </row>
-    <row r="686" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B686" s="5" t="s">
         <v>17</v>
       </c>
@@ -22019,7 +22022,7 @@
       <c r="M686" s="6"/>
       <c r="N686" s="7"/>
     </row>
-    <row r="687" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B687" s="5" t="s">
         <v>8</v>
       </c>
@@ -22050,7 +22053,7 @@
       <c r="M687" s="6"/>
       <c r="N687" s="7"/>
     </row>
-    <row r="688" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B688" s="5" t="s">
         <v>17</v>
       </c>
@@ -22081,7 +22084,7 @@
       <c r="M688" s="6"/>
       <c r="N688" s="7"/>
     </row>
-    <row r="689" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B689" s="5" t="s">
         <v>8</v>
       </c>
@@ -22112,7 +22115,7 @@
       <c r="M689" s="6"/>
       <c r="N689" s="7"/>
     </row>
-    <row r="690" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B690" s="5" t="s">
         <v>17</v>
       </c>
@@ -22143,7 +22146,7 @@
       <c r="M690" s="6"/>
       <c r="N690" s="7"/>
     </row>
-    <row r="691" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B691" s="5" t="s">
         <v>17</v>
       </c>
@@ -22174,7 +22177,7 @@
       <c r="M691" s="6"/>
       <c r="N691" s="7"/>
     </row>
-    <row r="692" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B692" s="5" t="s">
         <v>17</v>
       </c>
@@ -22205,7 +22208,7 @@
       <c r="M692" s="6"/>
       <c r="N692" s="7"/>
     </row>
-    <row r="693" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B693" s="5" t="s">
         <v>17</v>
       </c>
@@ -22236,7 +22239,7 @@
       <c r="M693" s="6"/>
       <c r="N693" s="7"/>
     </row>
-    <row r="694" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B694" s="5" t="s">
         <v>8</v>
       </c>
@@ -22267,7 +22270,7 @@
       <c r="M694" s="6"/>
       <c r="N694" s="7"/>
     </row>
-    <row r="695" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B695" s="5" t="s">
         <v>8</v>
       </c>
@@ -22298,7 +22301,7 @@
       <c r="M695" s="6"/>
       <c r="N695" s="7"/>
     </row>
-    <row r="696" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B696" s="5" t="s">
         <v>8</v>
       </c>
@@ -22329,7 +22332,7 @@
       <c r="M696" s="6"/>
       <c r="N696" s="7"/>
     </row>
-    <row r="697" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B697" s="5" t="s">
         <v>8</v>
       </c>
@@ -22360,7 +22363,7 @@
       <c r="M697" s="6"/>
       <c r="N697" s="7"/>
     </row>
-    <row r="698" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B698" s="5" t="s">
         <v>8</v>
       </c>
@@ -22391,7 +22394,7 @@
       <c r="M698" s="6"/>
       <c r="N698" s="7"/>
     </row>
-    <row r="699" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B699" s="5" t="s">
         <v>8</v>
       </c>
@@ -22422,7 +22425,7 @@
       <c r="M699" s="6"/>
       <c r="N699" s="7"/>
     </row>
-    <row r="700" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B700" s="5" t="s">
         <v>8</v>
       </c>
@@ -22453,7 +22456,7 @@
       <c r="M700" s="6"/>
       <c r="N700" s="7"/>
     </row>
-    <row r="701" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B701" s="5" t="s">
         <v>8</v>
       </c>
@@ -22484,7 +22487,7 @@
       <c r="M701" s="6"/>
       <c r="N701" s="7"/>
     </row>
-    <row r="702" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B702" s="5" t="s">
         <v>8</v>
       </c>
@@ -22515,7 +22518,7 @@
       <c r="M702" s="6"/>
       <c r="N702" s="7"/>
     </row>
-    <row r="703" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B703" s="5" t="s">
         <v>17</v>
       </c>
@@ -22546,7 +22549,7 @@
       <c r="M703" s="6"/>
       <c r="N703" s="7"/>
     </row>
-    <row r="704" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B704" s="5" t="s">
         <v>8</v>
       </c>
@@ -22577,7 +22580,7 @@
       <c r="M704" s="6"/>
       <c r="N704" s="7"/>
     </row>
-    <row r="705" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B705" s="5" t="s">
         <v>8</v>
       </c>
@@ -22608,7 +22611,7 @@
       <c r="M705" s="6"/>
       <c r="N705" s="7"/>
     </row>
-    <row r="706" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B706" s="5" t="s">
         <v>17</v>
       </c>
@@ -22639,7 +22642,7 @@
       <c r="M706" s="6"/>
       <c r="N706" s="7"/>
     </row>
-    <row r="707" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B707" s="5" t="s">
         <v>8</v>
       </c>
@@ -22670,7 +22673,7 @@
       <c r="M707" s="6"/>
       <c r="N707" s="7"/>
     </row>
-    <row r="708" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B708" s="5" t="s">
         <v>8</v>
       </c>
@@ -22701,7 +22704,7 @@
       <c r="M708" s="6"/>
       <c r="N708" s="7"/>
     </row>
-    <row r="709" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B709" s="5" t="s">
         <v>17</v>
       </c>
@@ -22732,7 +22735,7 @@
       <c r="M709" s="6"/>
       <c r="N709" s="7"/>
     </row>
-    <row r="710" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B710" s="5" t="s">
         <v>17</v>
       </c>
@@ -22763,7 +22766,7 @@
       <c r="M710" s="6"/>
       <c r="N710" s="7"/>
     </row>
-    <row r="711" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B711" s="5" t="s">
         <v>17</v>
       </c>
@@ -22794,7 +22797,7 @@
       <c r="M711" s="6"/>
       <c r="N711" s="7"/>
     </row>
-    <row r="712" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B712" s="5" t="s">
         <v>17</v>
       </c>
@@ -22825,7 +22828,7 @@
       <c r="M712" s="6"/>
       <c r="N712" s="7"/>
     </row>
-    <row r="713" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B713" s="5" t="s">
         <v>8</v>
       </c>
@@ -22856,7 +22859,7 @@
       <c r="M713" s="6"/>
       <c r="N713" s="7"/>
     </row>
-    <row r="714" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B714" s="5" t="s">
         <v>17</v>
       </c>
@@ -22887,7 +22890,7 @@
       <c r="M714" s="6"/>
       <c r="N714" s="7"/>
     </row>
-    <row r="715" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B715" s="5" t="s">
         <v>8</v>
       </c>
@@ -22918,7 +22921,7 @@
       <c r="M715" s="6"/>
       <c r="N715" s="7"/>
     </row>
-    <row r="716" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B716" s="5" t="s">
         <v>8</v>
       </c>
@@ -22949,7 +22952,7 @@
       <c r="M716" s="6"/>
       <c r="N716" s="7"/>
     </row>
-    <row r="717" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B717" s="5" t="s">
         <v>17</v>
       </c>
@@ -22980,7 +22983,7 @@
       <c r="M717" s="6"/>
       <c r="N717" s="7"/>
     </row>
-    <row r="718" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B718" s="5" t="s">
         <v>8</v>
       </c>
@@ -23011,7 +23014,7 @@
       <c r="M718" s="6"/>
       <c r="N718" s="7"/>
     </row>
-    <row r="719" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B719" s="5" t="s">
         <v>8</v>
       </c>
@@ -23042,7 +23045,7 @@
       <c r="M719" s="6"/>
       <c r="N719" s="7"/>
     </row>
-    <row r="720" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B720" s="5" t="s">
         <v>17</v>
       </c>
@@ -23073,7 +23076,7 @@
       <c r="M720" s="6"/>
       <c r="N720" s="7"/>
     </row>
-    <row r="721" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B721" s="5" t="s">
         <v>8</v>
       </c>
@@ -23104,7 +23107,7 @@
       <c r="M721" s="6"/>
       <c r="N721" s="7"/>
     </row>
-    <row r="722" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B722" s="5" t="s">
         <v>8</v>
       </c>
@@ -23135,7 +23138,7 @@
       <c r="M722" s="6"/>
       <c r="N722" s="7"/>
     </row>
-    <row r="723" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B723" s="5" t="s">
         <v>17</v>
       </c>
@@ -23166,7 +23169,7 @@
       <c r="M723" s="6"/>
       <c r="N723" s="7"/>
     </row>
-    <row r="724" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B724" s="5" t="s">
         <v>8</v>
       </c>
@@ -23197,7 +23200,7 @@
       <c r="M724" s="6"/>
       <c r="N724" s="7"/>
     </row>
-    <row r="725" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B725" s="5" t="s">
         <v>17</v>
       </c>
@@ -23228,7 +23231,7 @@
       <c r="M725" s="6"/>
       <c r="N725" s="7"/>
     </row>
-    <row r="726" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B726" s="5" t="s">
         <v>8</v>
       </c>
@@ -23259,7 +23262,7 @@
       <c r="M726" s="6"/>
       <c r="N726" s="7"/>
     </row>
-    <row r="727" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B727" s="5" t="s">
         <v>17</v>
       </c>
@@ -23290,7 +23293,7 @@
       <c r="M727" s="6"/>
       <c r="N727" s="7"/>
     </row>
-    <row r="728" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B728" s="5" t="s">
         <v>17</v>
       </c>
@@ -23321,7 +23324,7 @@
       <c r="M728" s="6"/>
       <c r="N728" s="7"/>
     </row>
-    <row r="729" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B729" s="5" t="s">
         <v>17</v>
       </c>
@@ -23352,7 +23355,7 @@
       <c r="M729" s="6"/>
       <c r="N729" s="7"/>
     </row>
-    <row r="730" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B730" s="5" t="s">
         <v>8</v>
       </c>
@@ -23383,7 +23386,7 @@
       <c r="M730" s="6"/>
       <c r="N730" s="7"/>
     </row>
-    <row r="731" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B731" s="5" t="s">
         <v>17</v>
       </c>
@@ -23414,7 +23417,7 @@
       <c r="M731" s="6"/>
       <c r="N731" s="7"/>
     </row>
-    <row r="732" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B732" s="5" t="s">
         <v>8</v>
       </c>
@@ -23445,7 +23448,7 @@
       <c r="M732" s="6"/>
       <c r="N732" s="7"/>
     </row>
-    <row r="733" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B733" s="5" t="s">
         <v>17</v>
       </c>
@@ -23476,7 +23479,7 @@
       <c r="M733" s="6"/>
       <c r="N733" s="7"/>
     </row>
-    <row r="734" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B734" s="5" t="s">
         <v>8</v>
       </c>
@@ -23507,7 +23510,7 @@
       <c r="M734" s="6"/>
       <c r="N734" s="7"/>
     </row>
-    <row r="735" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B735" s="5" t="s">
         <v>17</v>
       </c>
@@ -23538,7 +23541,7 @@
       <c r="M735" s="6"/>
       <c r="N735" s="7"/>
     </row>
-    <row r="736" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B736" s="5" t="s">
         <v>8</v>
       </c>
@@ -23569,7 +23572,7 @@
       <c r="M736" s="6"/>
       <c r="N736" s="7"/>
     </row>
-    <row r="737" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B737" s="5" t="s">
         <v>17</v>
       </c>
@@ -23600,7 +23603,7 @@
       <c r="M737" s="6"/>
       <c r="N737" s="7"/>
     </row>
-    <row r="738" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B738" s="5" t="s">
         <v>8</v>
       </c>
@@ -23631,7 +23634,7 @@
       <c r="M738" s="6"/>
       <c r="N738" s="7"/>
     </row>
-    <row r="739" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B739" s="5" t="s">
         <v>17</v>
       </c>
@@ -23662,7 +23665,7 @@
       <c r="M739" s="6"/>
       <c r="N739" s="7"/>
     </row>
-    <row r="740" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B740" s="5" t="s">
         <v>17</v>
       </c>
@@ -23693,7 +23696,7 @@
       <c r="M740" s="6"/>
       <c r="N740" s="7"/>
     </row>
-    <row r="741" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B741" s="5" t="s">
         <v>8</v>
       </c>
@@ -23724,7 +23727,7 @@
       <c r="M741" s="6"/>
       <c r="N741" s="7"/>
     </row>
-    <row r="742" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B742" s="5" t="s">
         <v>17</v>
       </c>
@@ -23755,7 +23758,7 @@
       <c r="M742" s="6"/>
       <c r="N742" s="7"/>
     </row>
-    <row r="743" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B743" s="5" t="s">
         <v>17</v>
       </c>
@@ -23786,7 +23789,7 @@
       <c r="M743" s="6"/>
       <c r="N743" s="7"/>
     </row>
-    <row r="744" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B744" s="5" t="s">
         <v>17</v>
       </c>
@@ -23817,7 +23820,7 @@
       <c r="M744" s="6"/>
       <c r="N744" s="7"/>
     </row>
-    <row r="745" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B745" s="5" t="s">
         <v>8</v>
       </c>
@@ -23848,7 +23851,7 @@
       <c r="M745" s="6"/>
       <c r="N745" s="7"/>
     </row>
-    <row r="746" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B746" s="5" t="s">
         <v>8</v>
       </c>
@@ -23879,7 +23882,7 @@
       <c r="M746" s="6"/>
       <c r="N746" s="7"/>
     </row>
-    <row r="747" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B747" s="5" t="s">
         <v>8</v>
       </c>
@@ -23910,7 +23913,7 @@
       <c r="M747" s="6"/>
       <c r="N747" s="7"/>
     </row>
-    <row r="748" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B748" s="5" t="s">
         <v>17</v>
       </c>
@@ -23941,7 +23944,7 @@
       <c r="M748" s="6"/>
       <c r="N748" s="7"/>
     </row>
-    <row r="749" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B749" s="5" t="s">
         <v>17</v>
       </c>
@@ -23972,7 +23975,7 @@
       <c r="M749" s="6"/>
       <c r="N749" s="7"/>
     </row>
-    <row r="750" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B750" s="5" t="s">
         <v>17</v>
       </c>
@@ -24003,7 +24006,7 @@
       <c r="M750" s="6"/>
       <c r="N750" s="7"/>
     </row>
-    <row r="751" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B751" s="5" t="s">
         <v>17</v>
       </c>
@@ -24034,7 +24037,7 @@
       <c r="M751" s="6"/>
       <c r="N751" s="7"/>
     </row>
-    <row r="752" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B752" s="5" t="s">
         <v>8</v>
       </c>
@@ -24065,7 +24068,7 @@
       <c r="M752" s="6"/>
       <c r="N752" s="7"/>
     </row>
-    <row r="753" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B753" s="5" t="s">
         <v>17</v>
       </c>
@@ -24096,7 +24099,7 @@
       <c r="M753" s="6"/>
       <c r="N753" s="7"/>
     </row>
-    <row r="754" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B754" s="5" t="s">
         <v>17</v>
       </c>
@@ -24127,7 +24130,7 @@
       <c r="M754" s="6"/>
       <c r="N754" s="7"/>
     </row>
-    <row r="755" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B755" s="5" t="s">
         <v>17</v>
       </c>
@@ -24158,7 +24161,7 @@
       <c r="M755" s="6"/>
       <c r="N755" s="7"/>
     </row>
-    <row r="756" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B756" s="5" t="s">
         <v>17</v>
       </c>
@@ -24189,7 +24192,7 @@
       <c r="M756" s="6"/>
       <c r="N756" s="7"/>
     </row>
-    <row r="757" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B757" s="5" t="s">
         <v>8</v>
       </c>
@@ -24220,7 +24223,7 @@
       <c r="M757" s="6"/>
       <c r="N757" s="7"/>
     </row>
-    <row r="758" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B758" s="5" t="s">
         <v>17</v>
       </c>
@@ -24251,7 +24254,7 @@
       <c r="M758" s="6"/>
       <c r="N758" s="7"/>
     </row>
-    <row r="759" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B759" s="5" t="s">
         <v>8</v>
       </c>
@@ -24282,7 +24285,7 @@
       <c r="M759" s="6"/>
       <c r="N759" s="7"/>
     </row>
-    <row r="760" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B760" s="5" t="s">
         <v>17</v>
       </c>
@@ -24313,7 +24316,7 @@
       <c r="M760" s="6"/>
       <c r="N760" s="7"/>
     </row>
-    <row r="761" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B761" s="5" t="s">
         <v>17</v>
       </c>
@@ -24344,7 +24347,7 @@
       <c r="M761" s="6"/>
       <c r="N761" s="7"/>
     </row>
-    <row r="762" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B762" s="5" t="s">
         <v>8</v>
       </c>
@@ -24375,7 +24378,7 @@
       <c r="M762" s="6"/>
       <c r="N762" s="7"/>
     </row>
-    <row r="763" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B763" s="5" t="s">
         <v>17</v>
       </c>
@@ -24406,7 +24409,7 @@
       <c r="M763" s="6"/>
       <c r="N763" s="7"/>
     </row>
-    <row r="764" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B764" s="5" t="s">
         <v>8</v>
       </c>
@@ -24437,7 +24440,7 @@
       <c r="M764" s="6"/>
       <c r="N764" s="7"/>
     </row>
-    <row r="765" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B765" s="5" t="s">
         <v>8</v>
       </c>
@@ -24468,7 +24471,7 @@
       <c r="M765" s="6"/>
       <c r="N765" s="7"/>
     </row>
-    <row r="766" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B766" s="5" t="s">
         <v>17</v>
       </c>
@@ -24499,7 +24502,7 @@
       <c r="M766" s="6"/>
       <c r="N766" s="7"/>
     </row>
-    <row r="767" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B767" s="5" t="s">
         <v>8</v>
       </c>
@@ -24530,7 +24533,7 @@
       <c r="M767" s="6"/>
       <c r="N767" s="7"/>
     </row>
-    <row r="768" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B768" s="5" t="s">
         <v>17</v>
       </c>
@@ -24561,7 +24564,7 @@
       <c r="M768" s="6"/>
       <c r="N768" s="7"/>
     </row>
-    <row r="769" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B769" s="5" t="s">
         <v>8</v>
       </c>
@@ -24592,7 +24595,7 @@
       <c r="M769" s="6"/>
       <c r="N769" s="7"/>
     </row>
-    <row r="770" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B770" s="5" t="s">
         <v>8</v>
       </c>
@@ -24623,7 +24626,7 @@
       <c r="M770" s="6"/>
       <c r="N770" s="7"/>
     </row>
-    <row r="771" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B771" s="5" t="s">
         <v>17</v>
       </c>
@@ -24654,7 +24657,7 @@
       <c r="M771" s="6"/>
       <c r="N771" s="7"/>
     </row>
-    <row r="772" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B772" s="5" t="s">
         <v>8</v>
       </c>
@@ -24685,7 +24688,7 @@
       <c r="M772" s="6"/>
       <c r="N772" s="7"/>
     </row>
-    <row r="773" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B773" s="5" t="s">
         <v>17</v>
       </c>
@@ -24716,7 +24719,7 @@
       <c r="M773" s="6"/>
       <c r="N773" s="7"/>
     </row>
-    <row r="774" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B774" s="5" t="s">
         <v>17</v>
       </c>
@@ -24747,7 +24750,7 @@
       <c r="M774" s="6"/>
       <c r="N774" s="7"/>
     </row>
-    <row r="775" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B775" s="5" t="s">
         <v>17</v>
       </c>
@@ -24778,7 +24781,7 @@
       <c r="M775" s="6"/>
       <c r="N775" s="7"/>
     </row>
-    <row r="776" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B776" s="5" t="s">
         <v>8</v>
       </c>
@@ -24809,7 +24812,7 @@
       <c r="M776" s="6"/>
       <c r="N776" s="7"/>
     </row>
-    <row r="777" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B777" s="5" t="s">
         <v>8</v>
       </c>
@@ -24840,7 +24843,7 @@
       <c r="M777" s="6"/>
       <c r="N777" s="7"/>
     </row>
-    <row r="778" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B778" s="5" t="s">
         <v>17</v>
       </c>
@@ -24871,7 +24874,7 @@
       <c r="M778" s="6"/>
       <c r="N778" s="7"/>
     </row>
-    <row r="779" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B779" s="5" t="s">
         <v>8</v>
       </c>
@@ -24902,7 +24905,7 @@
       <c r="M779" s="6"/>
       <c r="N779" s="7"/>
     </row>
-    <row r="780" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B780" s="5" t="s">
         <v>8</v>
       </c>
@@ -24933,7 +24936,7 @@
       <c r="M780" s="6"/>
       <c r="N780" s="7"/>
     </row>
-    <row r="781" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B781" s="5" t="s">
         <v>8</v>
       </c>
@@ -24964,7 +24967,7 @@
       <c r="M781" s="6"/>
       <c r="N781" s="7"/>
     </row>
-    <row r="782" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B782" s="5" t="s">
         <v>8</v>
       </c>
@@ -24995,7 +24998,7 @@
       <c r="M782" s="6"/>
       <c r="N782" s="7"/>
     </row>
-    <row r="783" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B783" s="5" t="s">
         <v>17</v>
       </c>
@@ -25026,7 +25029,7 @@
       <c r="M783" s="6"/>
       <c r="N783" s="7"/>
     </row>
-    <row r="784" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B784" s="5" t="s">
         <v>8</v>
       </c>
@@ -25057,7 +25060,7 @@
       <c r="M784" s="6"/>
       <c r="N784" s="7"/>
     </row>
-    <row r="785" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B785" s="5" t="s">
         <v>8</v>
       </c>
@@ -25088,7 +25091,7 @@
       <c r="M785" s="6"/>
       <c r="N785" s="7"/>
     </row>
-    <row r="786" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B786" s="5" t="s">
         <v>8</v>
       </c>
@@ -25119,7 +25122,7 @@
       <c r="M786" s="6"/>
       <c r="N786" s="7"/>
     </row>
-    <row r="787" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B787" s="5" t="s">
         <v>8</v>
       </c>
@@ -25150,7 +25153,7 @@
       <c r="M787" s="6"/>
       <c r="N787" s="7"/>
     </row>
-    <row r="788" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B788" s="5" t="s">
         <v>17</v>
       </c>
@@ -25181,7 +25184,7 @@
       <c r="M788" s="6"/>
       <c r="N788" s="7"/>
     </row>
-    <row r="789" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B789" s="5" t="s">
         <v>8</v>
       </c>
@@ -25212,7 +25215,7 @@
       <c r="M789" s="6"/>
       <c r="N789" s="7"/>
     </row>
-    <row r="790" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B790" s="5" t="s">
         <v>8</v>
       </c>
@@ -25243,7 +25246,7 @@
       <c r="M790" s="6"/>
       <c r="N790" s="7"/>
     </row>
-    <row r="791" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B791" s="5" t="s">
         <v>8</v>
       </c>
@@ -25274,7 +25277,7 @@
       <c r="M791" s="6"/>
       <c r="N791" s="7"/>
     </row>
-    <row r="792" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B792" s="5" t="s">
         <v>17</v>
       </c>
@@ -25305,7 +25308,7 @@
       <c r="M792" s="6"/>
       <c r="N792" s="7"/>
     </row>
-    <row r="793" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B793" s="5" t="s">
         <v>8</v>
       </c>
@@ -25336,7 +25339,7 @@
       <c r="M793" s="6"/>
       <c r="N793" s="7"/>
     </row>
-    <row r="794" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B794" s="5" t="s">
         <v>8</v>
       </c>
@@ -25367,7 +25370,7 @@
       <c r="M794" s="6"/>
       <c r="N794" s="7"/>
     </row>
-    <row r="795" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B795" s="5" t="s">
         <v>8</v>
       </c>
@@ -25398,7 +25401,7 @@
       <c r="M795" s="6"/>
       <c r="N795" s="7"/>
     </row>
-    <row r="796" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B796" s="5" t="s">
         <v>17</v>
       </c>
@@ -25429,7 +25432,7 @@
       <c r="M796" s="6"/>
       <c r="N796" s="7"/>
     </row>
-    <row r="797" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B797" s="5" t="s">
         <v>17</v>
       </c>
@@ -25460,7 +25463,7 @@
       <c r="M797" s="6"/>
       <c r="N797" s="7"/>
     </row>
-    <row r="798" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B798" s="5" t="s">
         <v>8</v>
       </c>
@@ -25491,7 +25494,7 @@
       <c r="M798" s="6"/>
       <c r="N798" s="7"/>
     </row>
-    <row r="799" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B799" s="5" t="s">
         <v>8</v>
       </c>
@@ -25522,7 +25525,7 @@
       <c r="M799" s="6"/>
       <c r="N799" s="7"/>
     </row>
-    <row r="800" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B800" s="5" t="s">
         <v>17</v>
       </c>
@@ -25553,7 +25556,7 @@
       <c r="M800" s="6"/>
       <c r="N800" s="7"/>
     </row>
-    <row r="801" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B801" s="5" t="s">
         <v>8</v>
       </c>
@@ -25584,7 +25587,7 @@
       <c r="M801" s="6"/>
       <c r="N801" s="7"/>
     </row>
-    <row r="802" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B802" s="5" t="s">
         <v>17</v>
       </c>
@@ -25615,7 +25618,7 @@
       <c r="M802" s="6"/>
       <c r="N802" s="7"/>
     </row>
-    <row r="803" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B803" s="5" t="s">
         <v>8</v>
       </c>
@@ -25646,7 +25649,7 @@
       <c r="M803" s="6"/>
       <c r="N803" s="7"/>
     </row>
-    <row r="804" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B804" s="5" t="s">
         <v>17</v>
       </c>
@@ -25677,7 +25680,7 @@
       <c r="M804" s="6"/>
       <c r="N804" s="7"/>
     </row>
-    <row r="805" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B805" s="5" t="s">
         <v>17</v>
       </c>
@@ -25708,7 +25711,7 @@
       <c r="M805" s="6"/>
       <c r="N805" s="7"/>
     </row>
-    <row r="806" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B806" s="5" t="s">
         <v>8</v>
       </c>
@@ -25739,7 +25742,7 @@
       <c r="M806" s="6"/>
       <c r="N806" s="7"/>
     </row>
-    <row r="807" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B807" s="5" t="s">
         <v>8</v>
       </c>
@@ -25770,7 +25773,7 @@
       <c r="M807" s="6"/>
       <c r="N807" s="7"/>
     </row>
-    <row r="808" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B808" s="5" t="s">
         <v>8</v>
       </c>
@@ -25801,7 +25804,7 @@
       <c r="M808" s="6"/>
       <c r="N808" s="7"/>
     </row>
-    <row r="809" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B809" s="5" t="s">
         <v>17</v>
       </c>
@@ -25832,7 +25835,7 @@
       <c r="M809" s="6"/>
       <c r="N809" s="7"/>
     </row>
-    <row r="810" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B810" s="5" t="s">
         <v>8</v>
       </c>
@@ -25863,7 +25866,7 @@
       <c r="M810" s="6"/>
       <c r="N810" s="7"/>
     </row>
-    <row r="811" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B811" s="5" t="s">
         <v>8</v>
       </c>
@@ -25894,7 +25897,7 @@
       <c r="M811" s="6"/>
       <c r="N811" s="7"/>
     </row>
-    <row r="812" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B812" s="5" t="s">
         <v>17</v>
       </c>
@@ -25925,7 +25928,7 @@
       <c r="M812" s="6"/>
       <c r="N812" s="7"/>
     </row>
-    <row r="813" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B813" s="5" t="s">
         <v>17</v>
       </c>
@@ -25956,7 +25959,7 @@
       <c r="M813" s="6"/>
       <c r="N813" s="7"/>
     </row>
-    <row r="814" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B814" s="5" t="s">
         <v>17</v>
       </c>
@@ -25987,7 +25990,7 @@
       <c r="M814" s="6"/>
       <c r="N814" s="7"/>
     </row>
-    <row r="815" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B815" s="5" t="s">
         <v>17</v>
       </c>
@@ -26018,7 +26021,7 @@
       <c r="M815" s="6"/>
       <c r="N815" s="7"/>
     </row>
-    <row r="816" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B816" s="5" t="s">
         <v>8</v>
       </c>
@@ -26049,7 +26052,7 @@
       <c r="M816" s="6"/>
       <c r="N816" s="7"/>
     </row>
-    <row r="817" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B817" s="5" t="s">
         <v>17</v>
       </c>
@@ -26080,7 +26083,7 @@
       <c r="M817" s="6"/>
       <c r="N817" s="7"/>
     </row>
-    <row r="818" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B818" s="5" t="s">
         <v>8</v>
       </c>
@@ -26111,7 +26114,7 @@
       <c r="M818" s="6"/>
       <c r="N818" s="7"/>
     </row>
-    <row r="819" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B819" s="5" t="s">
         <v>17</v>
       </c>
@@ -26142,7 +26145,7 @@
       <c r="M819" s="6"/>
       <c r="N819" s="7"/>
     </row>
-    <row r="820" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B820" s="5" t="s">
         <v>8</v>
       </c>
@@ -26173,7 +26176,7 @@
       <c r="M820" s="6"/>
       <c r="N820" s="7"/>
     </row>
-    <row r="821" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B821" s="5" t="s">
         <v>17</v>
       </c>
@@ -26204,7 +26207,7 @@
       <c r="M821" s="6"/>
       <c r="N821" s="7"/>
     </row>
-    <row r="822" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B822" s="5" t="s">
         <v>8</v>
       </c>
@@ -26235,7 +26238,7 @@
       <c r="M822" s="6"/>
       <c r="N822" s="7"/>
     </row>
-    <row r="823" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B823" s="5" t="s">
         <v>8</v>
       </c>
@@ -26266,7 +26269,7 @@
       <c r="M823" s="6"/>
       <c r="N823" s="7"/>
     </row>
-    <row r="824" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B824" s="5" t="s">
         <v>8</v>
       </c>
@@ -26297,7 +26300,7 @@
       <c r="M824" s="6"/>
       <c r="N824" s="7"/>
     </row>
-    <row r="825" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B825" s="5" t="s">
         <v>8</v>
       </c>
@@ -26328,7 +26331,7 @@
       <c r="M825" s="6"/>
       <c r="N825" s="7"/>
     </row>
-    <row r="826" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B826" s="5" t="s">
         <v>17</v>
       </c>
@@ -26359,7 +26362,7 @@
       <c r="M826" s="6"/>
       <c r="N826" s="7"/>
     </row>
-    <row r="827" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B827" s="5" t="s">
         <v>8</v>
       </c>
@@ -26390,7 +26393,7 @@
       <c r="M827" s="6"/>
       <c r="N827" s="7"/>
     </row>
-    <row r="828" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B828" s="5" t="s">
         <v>8</v>
       </c>
@@ -26421,7 +26424,7 @@
       <c r="M828" s="6"/>
       <c r="N828" s="7"/>
     </row>
-    <row r="829" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B829" s="5" t="s">
         <v>17</v>
       </c>
@@ -26452,7 +26455,7 @@
       <c r="M829" s="6"/>
       <c r="N829" s="7"/>
     </row>
-    <row r="830" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B830" s="5" t="s">
         <v>8</v>
       </c>
@@ -26483,7 +26486,7 @@
       <c r="M830" s="6"/>
       <c r="N830" s="7"/>
     </row>
-    <row r="831" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B831" s="5" t="s">
         <v>8</v>
       </c>
@@ -26514,7 +26517,7 @@
       <c r="M831" s="6"/>
       <c r="N831" s="7"/>
     </row>
-    <row r="832" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B832" s="5" t="s">
         <v>8</v>
       </c>
@@ -26545,7 +26548,7 @@
       <c r="M832" s="6"/>
       <c r="N832" s="7"/>
     </row>
-    <row r="833" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B833" s="5" t="s">
         <v>17</v>
       </c>
@@ -26576,7 +26579,7 @@
       <c r="M833" s="6"/>
       <c r="N833" s="7"/>
     </row>
-    <row r="834" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B834" s="5" t="s">
         <v>8</v>
       </c>
@@ -26607,7 +26610,7 @@
       <c r="M834" s="6"/>
       <c r="N834" s="7"/>
     </row>
-    <row r="835" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B835" s="5" t="s">
         <v>8</v>
       </c>
@@ -26638,7 +26641,7 @@
       <c r="M835" s="6"/>
       <c r="N835" s="7"/>
     </row>
-    <row r="836" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B836" s="5" t="s">
         <v>17</v>
       </c>
@@ -26669,7 +26672,7 @@
       <c r="M836" s="6"/>
       <c r="N836" s="7"/>
     </row>
-    <row r="837" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B837" s="5" t="s">
         <v>8</v>
       </c>
@@ -26700,7 +26703,7 @@
       <c r="M837" s="6"/>
       <c r="N837" s="7"/>
     </row>
-    <row r="838" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B838" s="5" t="s">
         <v>17</v>
       </c>
@@ -26731,7 +26734,7 @@
       <c r="M838" s="6"/>
       <c r="N838" s="7"/>
     </row>
-    <row r="839" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B839" s="5" t="s">
         <v>8</v>
       </c>
@@ -26762,7 +26765,7 @@
       <c r="M839" s="6"/>
       <c r="N839" s="7"/>
     </row>
-    <row r="840" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B840" s="5" t="s">
         <v>17</v>
       </c>
@@ -26793,7 +26796,7 @@
       <c r="M840" s="6"/>
       <c r="N840" s="7"/>
     </row>
-    <row r="841" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B841" s="5" t="s">
         <v>8</v>
       </c>
@@ -26824,7 +26827,7 @@
       <c r="M841" s="6"/>
       <c r="N841" s="7"/>
     </row>
-    <row r="842" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B842" s="5" t="s">
         <v>17</v>
       </c>
@@ -26855,7 +26858,7 @@
       <c r="M842" s="6"/>
       <c r="N842" s="7"/>
     </row>
-    <row r="843" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B843" s="5" t="s">
         <v>8</v>
       </c>
@@ -26886,7 +26889,7 @@
       <c r="M843" s="6"/>
       <c r="N843" s="7"/>
     </row>
-    <row r="844" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B844" s="5" t="s">
         <v>8</v>
       </c>
@@ -26917,7 +26920,7 @@
       <c r="M844" s="6"/>
       <c r="N844" s="7"/>
     </row>
-    <row r="845" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B845" s="5" t="s">
         <v>17</v>
       </c>
@@ -26948,7 +26951,7 @@
       <c r="M845" s="6"/>
       <c r="N845" s="7"/>
     </row>
-    <row r="846" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B846" s="5" t="s">
         <v>8</v>
       </c>
@@ -26979,7 +26982,7 @@
       <c r="M846" s="6"/>
       <c r="N846" s="7"/>
     </row>
-    <row r="847" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B847" s="5" t="s">
         <v>17</v>
       </c>
@@ -27010,7 +27013,7 @@
       <c r="M847" s="6"/>
       <c r="N847" s="7"/>
     </row>
-    <row r="848" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B848" s="5" t="s">
         <v>8</v>
       </c>
@@ -27041,7 +27044,7 @@
       <c r="M848" s="6"/>
       <c r="N848" s="7"/>
     </row>
-    <row r="849" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B849" s="5" t="s">
         <v>17</v>
       </c>
@@ -27072,7 +27075,7 @@
       <c r="M849" s="6"/>
       <c r="N849" s="7"/>
     </row>
-    <row r="850" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B850" s="5" t="s">
         <v>17</v>
       </c>
@@ -27103,7 +27106,7 @@
       <c r="M850" s="6"/>
       <c r="N850" s="7"/>
     </row>
-    <row r="851" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B851" s="5" t="s">
         <v>17</v>
       </c>
@@ -27134,7 +27137,7 @@
       <c r="M851" s="6"/>
       <c r="N851" s="7"/>
     </row>
-    <row r="852" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B852" s="5" t="s">
         <v>8</v>
       </c>
@@ -27165,7 +27168,7 @@
       <c r="M852" s="6"/>
       <c r="N852" s="7"/>
     </row>
-    <row r="853" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B853" s="5" t="s">
         <v>17</v>
       </c>
@@ -27196,7 +27199,7 @@
       <c r="M853" s="6"/>
       <c r="N853" s="7"/>
     </row>
-    <row r="854" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B854" s="5" t="s">
         <v>17</v>
       </c>
@@ -27227,7 +27230,7 @@
       <c r="M854" s="6"/>
       <c r="N854" s="7"/>
     </row>
-    <row r="855" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B855" s="5" t="s">
         <v>8</v>
       </c>
@@ -27258,7 +27261,7 @@
       <c r="M855" s="6"/>
       <c r="N855" s="7"/>
     </row>
-    <row r="856" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B856" s="5" t="s">
         <v>8</v>
       </c>
@@ -27289,7 +27292,7 @@
       <c r="M856" s="6"/>
       <c r="N856" s="7"/>
     </row>
-    <row r="857" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B857" s="5" t="s">
         <v>17</v>
       </c>
@@ -27320,7 +27323,7 @@
       <c r="M857" s="6"/>
       <c r="N857" s="7"/>
     </row>
-    <row r="858" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B858" s="5" t="s">
         <v>17</v>
       </c>
@@ -27351,7 +27354,7 @@
       <c r="M858" s="6"/>
       <c r="N858" s="7"/>
     </row>
-    <row r="859" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B859" s="5" t="s">
         <v>8</v>
       </c>
@@ -27382,7 +27385,7 @@
       <c r="M859" s="6"/>
       <c r="N859" s="7"/>
     </row>
-    <row r="860" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B860" s="5" t="s">
         <v>17</v>
       </c>
@@ -27413,7 +27416,7 @@
       <c r="M860" s="6"/>
       <c r="N860" s="7"/>
     </row>
-    <row r="861" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B861" s="5" t="s">
         <v>8</v>
       </c>
@@ -27444,7 +27447,7 @@
       <c r="M861" s="6"/>
       <c r="N861" s="7"/>
     </row>
-    <row r="862" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B862" s="5" t="s">
         <v>17</v>
       </c>
@@ -27475,7 +27478,7 @@
       <c r="M862" s="6"/>
       <c r="N862" s="7"/>
     </row>
-    <row r="863" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B863" s="5" t="s">
         <v>17</v>
       </c>
@@ -27506,7 +27509,7 @@
       <c r="M863" s="6"/>
       <c r="N863" s="7"/>
     </row>
-    <row r="864" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B864" s="5" t="s">
         <v>8</v>
       </c>
@@ -27537,7 +27540,7 @@
       <c r="M864" s="6"/>
       <c r="N864" s="7"/>
     </row>
-    <row r="865" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B865" s="5" t="s">
         <v>8</v>
       </c>
@@ -27568,7 +27571,7 @@
       <c r="M865" s="6"/>
       <c r="N865" s="7"/>
     </row>
-    <row r="866" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B866" s="5" t="s">
         <v>17</v>
       </c>
@@ -27599,7 +27602,7 @@
       <c r="M866" s="6"/>
       <c r="N866" s="7"/>
     </row>
-    <row r="867" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B867" s="5" t="s">
         <v>8</v>
       </c>
@@ -27630,7 +27633,7 @@
       <c r="M867" s="6"/>
       <c r="N867" s="7"/>
     </row>
-    <row r="868" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B868" s="5" t="s">
         <v>17</v>
       </c>
@@ -27661,7 +27664,7 @@
       <c r="M868" s="6"/>
       <c r="N868" s="7"/>
     </row>
-    <row r="869" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B869" s="5" t="s">
         <v>17</v>
       </c>
@@ -27692,7 +27695,7 @@
       <c r="M869" s="6"/>
       <c r="N869" s="7"/>
     </row>
-    <row r="870" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B870" s="5" t="s">
         <v>17</v>
       </c>
@@ -27723,7 +27726,7 @@
       <c r="M870" s="6"/>
       <c r="N870" s="7"/>
     </row>
-    <row r="871" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B871" s="5" t="s">
         <v>17</v>
       </c>
@@ -27754,7 +27757,7 @@
       <c r="M871" s="6"/>
       <c r="N871" s="7"/>
     </row>
-    <row r="872" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B872" s="5" t="s">
         <v>17</v>
       </c>
@@ -27785,7 +27788,7 @@
       <c r="M872" s="6"/>
       <c r="N872" s="7"/>
     </row>
-    <row r="873" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B873" s="5" t="s">
         <v>17</v>
       </c>
@@ -27816,7 +27819,7 @@
       <c r="M873" s="6"/>
       <c r="N873" s="7"/>
     </row>
-    <row r="874" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B874" s="5" t="s">
         <v>17</v>
       </c>
@@ -27847,7 +27850,7 @@
       <c r="M874" s="6"/>
       <c r="N874" s="7"/>
     </row>
-    <row r="875" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B875" s="5" t="s">
         <v>8</v>
       </c>
@@ -27878,7 +27881,7 @@
       <c r="M875" s="6"/>
       <c r="N875" s="7"/>
     </row>
-    <row r="876" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B876" s="5" t="s">
         <v>17</v>
       </c>
@@ -27909,7 +27912,7 @@
       <c r="M876" s="6"/>
       <c r="N876" s="7"/>
     </row>
-    <row r="877" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B877" s="5" t="s">
         <v>17</v>
       </c>
@@ -27940,7 +27943,7 @@
       <c r="M877" s="6"/>
       <c r="N877" s="7"/>
     </row>
-    <row r="878" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B878" s="5" t="s">
         <v>8</v>
       </c>
@@ -27971,7 +27974,7 @@
       <c r="M878" s="6"/>
       <c r="N878" s="7"/>
     </row>
-    <row r="879" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B879" s="5" t="s">
         <v>17</v>
       </c>
@@ -28002,7 +28005,7 @@
       <c r="M879" s="6"/>
       <c r="N879" s="7"/>
     </row>
-    <row r="880" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B880" s="5" t="s">
         <v>17</v>
       </c>
@@ -28033,7 +28036,7 @@
       <c r="M880" s="6"/>
       <c r="N880" s="7"/>
     </row>
-    <row r="881" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B881" s="5" t="s">
         <v>17</v>
       </c>
@@ -28064,7 +28067,7 @@
       <c r="M881" s="6"/>
       <c r="N881" s="7"/>
     </row>
-    <row r="882" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B882" s="5" t="s">
         <v>8</v>
       </c>
@@ -28095,7 +28098,7 @@
       <c r="M882" s="6"/>
       <c r="N882" s="7"/>
     </row>
-    <row r="883" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B883" s="5" t="s">
         <v>8</v>
       </c>
@@ -28126,7 +28129,7 @@
       <c r="M883" s="6"/>
       <c r="N883" s="7"/>
     </row>
-    <row r="884" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B884" s="5" t="s">
         <v>17</v>
       </c>
@@ -28157,7 +28160,7 @@
       <c r="M884" s="6"/>
       <c r="N884" s="7"/>
     </row>
-    <row r="885" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B885" s="5" t="s">
         <v>8</v>
       </c>
@@ -28188,7 +28191,7 @@
       <c r="M885" s="6"/>
       <c r="N885" s="7"/>
     </row>
-    <row r="886" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B886" s="5" t="s">
         <v>8</v>
       </c>
@@ -28219,7 +28222,7 @@
       <c r="M886" s="6"/>
       <c r="N886" s="7"/>
     </row>
-    <row r="887" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B887" s="5" t="s">
         <v>17</v>
       </c>
@@ -28250,7 +28253,7 @@
       <c r="M887" s="6"/>
       <c r="N887" s="7"/>
     </row>
-    <row r="888" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B888" s="5" t="s">
         <v>8</v>
       </c>
@@ -28281,7 +28284,7 @@
       <c r="M888" s="6"/>
       <c r="N888" s="7"/>
     </row>
-    <row r="889" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B889" s="5" t="s">
         <v>8</v>
       </c>
@@ -28312,7 +28315,7 @@
       <c r="M889" s="6"/>
       <c r="N889" s="7"/>
     </row>
-    <row r="890" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B890" s="5" t="s">
         <v>8</v>
       </c>
@@ -28343,7 +28346,7 @@
       <c r="M890" s="6"/>
       <c r="N890" s="7"/>
     </row>
-    <row r="891" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B891" s="5" t="s">
         <v>17</v>
       </c>
@@ -28374,7 +28377,7 @@
       <c r="M891" s="6"/>
       <c r="N891" s="7"/>
     </row>
-    <row r="892" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B892" s="5" t="s">
         <v>8</v>
       </c>
@@ -28405,7 +28408,7 @@
       <c r="M892" s="6"/>
       <c r="N892" s="7"/>
     </row>
-    <row r="893" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B893" s="5" t="s">
         <v>17</v>
       </c>
@@ -28436,7 +28439,7 @@
       <c r="M893" s="6"/>
       <c r="N893" s="7"/>
     </row>
-    <row r="894" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B894" s="5" t="s">
         <v>8</v>
       </c>
@@ -28467,7 +28470,7 @@
       <c r="M894" s="6"/>
       <c r="N894" s="7"/>
     </row>
-    <row r="895" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B895" s="5" t="s">
         <v>8</v>
       </c>
@@ -28498,7 +28501,7 @@
       <c r="M895" s="6"/>
       <c r="N895" s="7"/>
     </row>
-    <row r="896" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B896" s="5" t="s">
         <v>8</v>
       </c>
@@ -28529,7 +28532,7 @@
       <c r="M896" s="6"/>
       <c r="N896" s="7"/>
     </row>
-    <row r="897" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B897" s="5" t="s">
         <v>17</v>
       </c>
@@ -28560,7 +28563,7 @@
       <c r="M897" s="6"/>
       <c r="N897" s="7"/>
     </row>
-    <row r="898" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B898" s="5" t="s">
         <v>8</v>
       </c>
@@ -28591,7 +28594,7 @@
       <c r="M898" s="6"/>
       <c r="N898" s="7"/>
     </row>
-    <row r="899" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B899" s="5" t="s">
         <v>8</v>
       </c>
@@ -28622,7 +28625,7 @@
       <c r="M899" s="6"/>
       <c r="N899" s="7"/>
     </row>
-    <row r="900" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B900" s="5" t="s">
         <v>17</v>
       </c>
@@ -28653,7 +28656,7 @@
       <c r="M900" s="6"/>
       <c r="N900" s="7"/>
     </row>
-    <row r="901" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B901" s="5" t="s">
         <v>8</v>
       </c>
@@ -28684,7 +28687,7 @@
       <c r="M901" s="6"/>
       <c r="N901" s="7"/>
     </row>
-    <row r="902" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B902" s="5" t="s">
         <v>17</v>
       </c>
@@ -28715,7 +28718,7 @@
       <c r="M902" s="6"/>
       <c r="N902" s="7"/>
     </row>
-    <row r="903" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B903" s="5" t="s">
         <v>8</v>
       </c>
@@ -28746,7 +28749,7 @@
       <c r="M903" s="6"/>
       <c r="N903" s="7"/>
     </row>
-    <row r="904" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B904" s="5" t="s">
         <v>17</v>
       </c>
@@ -28777,7 +28780,7 @@
       <c r="M904" s="6"/>
       <c r="N904" s="7"/>
     </row>
-    <row r="905" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B905" s="5" t="s">
         <v>8</v>
       </c>
@@ -28808,7 +28811,7 @@
       <c r="M905" s="6"/>
       <c r="N905" s="7"/>
     </row>
-    <row r="906" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B906" s="5" t="s">
         <v>8</v>
       </c>
@@ -28839,7 +28842,7 @@
       <c r="M906" s="6"/>
       <c r="N906" s="7"/>
     </row>
-    <row r="907" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B907" s="5" t="s">
         <v>8</v>
       </c>
@@ -28870,7 +28873,7 @@
       <c r="M907" s="6"/>
       <c r="N907" s="7"/>
     </row>
-    <row r="908" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B908" s="5" t="s">
         <v>8</v>
       </c>
@@ -28901,7 +28904,7 @@
       <c r="M908" s="6"/>
       <c r="N908" s="7"/>
     </row>
-    <row r="909" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B909" s="5" t="s">
         <v>17</v>
       </c>
@@ -28932,7 +28935,7 @@
       <c r="M909" s="6"/>
       <c r="N909" s="7"/>
     </row>
-    <row r="910" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B910" s="5" t="s">
         <v>17</v>
       </c>
@@ -28963,7 +28966,7 @@
       <c r="M910" s="6"/>
       <c r="N910" s="7"/>
     </row>
-    <row r="911" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B911" s="5" t="s">
         <v>8</v>
       </c>
@@ -28994,7 +28997,7 @@
       <c r="M911" s="6"/>
       <c r="N911" s="7"/>
     </row>
-    <row r="912" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B912" s="5" t="s">
         <v>8</v>
       </c>
@@ -29025,7 +29028,7 @@
       <c r="M912" s="6"/>
       <c r="N912" s="7"/>
     </row>
-    <row r="913" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B913" s="5" t="s">
         <v>17</v>
       </c>
@@ -29056,7 +29059,7 @@
       <c r="M913" s="6"/>
       <c r="N913" s="7"/>
     </row>
-    <row r="914" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B914" s="5" t="s">
         <v>17</v>
       </c>
@@ -29087,7 +29090,7 @@
       <c r="M914" s="6"/>
       <c r="N914" s="7"/>
     </row>
-    <row r="915" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B915" s="5" t="s">
         <v>8</v>
       </c>
@@ -29118,7 +29121,7 @@
       <c r="M915" s="6"/>
       <c r="N915" s="7"/>
     </row>
-    <row r="916" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B916" s="5" t="s">
         <v>8</v>
       </c>
@@ -29149,7 +29152,7 @@
       <c r="M916" s="6"/>
       <c r="N916" s="7"/>
     </row>
-    <row r="917" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B917" s="5" t="s">
         <v>8</v>
       </c>
@@ -29180,7 +29183,7 @@
       <c r="M917" s="6"/>
       <c r="N917" s="7"/>
     </row>
-    <row r="918" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B918" s="5" t="s">
         <v>8</v>
       </c>
@@ -29211,7 +29214,7 @@
       <c r="M918" s="6"/>
       <c r="N918" s="7"/>
     </row>
-    <row r="919" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B919" s="5" t="s">
         <v>8</v>
       </c>
@@ -29242,7 +29245,7 @@
       <c r="M919" s="6"/>
       <c r="N919" s="7"/>
     </row>
-    <row r="920" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B920" s="5" t="s">
         <v>17</v>
       </c>
@@ -29273,7 +29276,7 @@
       <c r="M920" s="6"/>
       <c r="N920" s="7"/>
     </row>
-    <row r="921" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B921" s="5" t="s">
         <v>8</v>
       </c>
@@ -29304,7 +29307,7 @@
       <c r="M921" s="6"/>
       <c r="N921" s="7"/>
     </row>
-    <row r="922" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B922" s="5" t="s">
         <v>8</v>
       </c>
@@ -29335,7 +29338,7 @@
       <c r="M922" s="6"/>
       <c r="N922" s="7"/>
     </row>
-    <row r="923" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B923" s="5" t="s">
         <v>17</v>
       </c>
@@ -29366,7 +29369,7 @@
       <c r="M923" s="6"/>
       <c r="N923" s="7"/>
     </row>
-    <row r="924" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B924" s="5" t="s">
         <v>17</v>
       </c>
@@ -29397,7 +29400,7 @@
       <c r="M924" s="6"/>
       <c r="N924" s="7"/>
     </row>
-    <row r="925" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B925" s="5" t="s">
         <v>8</v>
       </c>
@@ -29428,7 +29431,7 @@
       <c r="M925" s="6"/>
       <c r="N925" s="7"/>
     </row>
-    <row r="926" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B926" s="5" t="s">
         <v>17</v>
       </c>
@@ -29459,7 +29462,7 @@
       <c r="M926" s="6"/>
       <c r="N926" s="7"/>
     </row>
-    <row r="927" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B927" s="5" t="s">
         <v>8</v>
       </c>
@@ -29490,7 +29493,7 @@
       <c r="M927" s="6"/>
       <c r="N927" s="7"/>
     </row>
-    <row r="928" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B928" s="5" t="s">
         <v>17</v>
       </c>
@@ -29521,7 +29524,7 @@
       <c r="M928" s="6"/>
       <c r="N928" s="7"/>
     </row>
-    <row r="929" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B929" s="5" t="s">
         <v>17</v>
       </c>
@@ -29552,7 +29555,7 @@
       <c r="M929" s="6"/>
       <c r="N929" s="7"/>
     </row>
-    <row r="930" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B930" s="5" t="s">
         <v>17</v>
       </c>
@@ -29583,7 +29586,7 @@
       <c r="M930" s="6"/>
       <c r="N930" s="7"/>
     </row>
-    <row r="931" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B931" s="5" t="s">
         <v>8</v>
       </c>
@@ -29614,7 +29617,7 @@
       <c r="M931" s="6"/>
       <c r="N931" s="7"/>
     </row>
-    <row r="932" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B932" s="5" t="s">
         <v>17</v>
       </c>
@@ -29645,7 +29648,7 @@
       <c r="M932" s="6"/>
       <c r="N932" s="7"/>
     </row>
-    <row r="933" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B933" s="5" t="s">
         <v>8</v>
       </c>
@@ -29676,7 +29679,7 @@
       <c r="M933" s="6"/>
       <c r="N933" s="7"/>
     </row>
-    <row r="934" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B934" s="5" t="s">
         <v>17</v>
       </c>
@@ -29707,7 +29710,7 @@
       <c r="M934" s="6"/>
       <c r="N934" s="7"/>
     </row>
-    <row r="935" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B935" s="5" t="s">
         <v>17</v>
       </c>
@@ -29738,7 +29741,7 @@
       <c r="M935" s="6"/>
       <c r="N935" s="7"/>
     </row>
-    <row r="936" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B936" s="5" t="s">
         <v>17</v>
       </c>
@@ -29769,7 +29772,7 @@
       <c r="M936" s="6"/>
       <c r="N936" s="7"/>
     </row>
-    <row r="937" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B937" s="5" t="s">
         <v>17</v>
       </c>
@@ -29800,7 +29803,7 @@
       <c r="M937" s="6"/>
       <c r="N937" s="7"/>
     </row>
-    <row r="938" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B938" s="5" t="s">
         <v>17</v>
       </c>
@@ -29831,7 +29834,7 @@
       <c r="M938" s="6"/>
       <c r="N938" s="7"/>
     </row>
-    <row r="939" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B939" s="5" t="s">
         <v>17</v>
       </c>
@@ -29862,7 +29865,7 @@
       <c r="M939" s="6"/>
       <c r="N939" s="7"/>
     </row>
-    <row r="940" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B940" s="5" t="s">
         <v>17</v>
       </c>
@@ -29893,7 +29896,7 @@
       <c r="M940" s="6"/>
       <c r="N940" s="7"/>
     </row>
-    <row r="941" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B941" s="5" t="s">
         <v>8</v>
       </c>
@@ -29924,7 +29927,7 @@
       <c r="M941" s="6"/>
       <c r="N941" s="7"/>
     </row>
-    <row r="942" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B942" s="5" t="s">
         <v>17</v>
       </c>
@@ -29955,7 +29958,7 @@
       <c r="M942" s="6"/>
       <c r="N942" s="7"/>
     </row>
-    <row r="943" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B943" s="5" t="s">
         <v>17</v>
       </c>
@@ -29986,7 +29989,7 @@
       <c r="M943" s="6"/>
       <c r="N943" s="7"/>
     </row>
-    <row r="944" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B944" s="5" t="s">
         <v>17</v>
       </c>
@@ -30017,7 +30020,7 @@
       <c r="M944" s="6"/>
       <c r="N944" s="7"/>
     </row>
-    <row r="945" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B945" s="5" t="s">
         <v>8</v>
       </c>
@@ -30048,7 +30051,7 @@
       <c r="M945" s="6"/>
       <c r="N945" s="7"/>
     </row>
-    <row r="946" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B946" s="5" t="s">
         <v>17</v>
       </c>
@@ -30079,7 +30082,7 @@
       <c r="M946" s="6"/>
       <c r="N946" s="7"/>
     </row>
-    <row r="947" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B947" s="5" t="s">
         <v>17</v>
       </c>
@@ -30110,7 +30113,7 @@
       <c r="M947" s="6"/>
       <c r="N947" s="7"/>
     </row>
-    <row r="948" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B948" s="5" t="s">
         <v>8</v>
       </c>
@@ -30141,7 +30144,7 @@
       <c r="M948" s="6"/>
       <c r="N948" s="7"/>
     </row>
-    <row r="949" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B949" s="5" t="s">
         <v>8</v>
       </c>
@@ -30172,7 +30175,7 @@
       <c r="M949" s="6"/>
       <c r="N949" s="7"/>
     </row>
-    <row r="950" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B950" s="5" t="s">
         <v>17</v>
       </c>
@@ -30203,7 +30206,7 @@
       <c r="M950" s="6"/>
       <c r="N950" s="7"/>
     </row>
-    <row r="951" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B951" s="5" t="s">
         <v>8</v>
       </c>
@@ -30234,7 +30237,7 @@
       <c r="M951" s="6"/>
       <c r="N951" s="7"/>
     </row>
-    <row r="952" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B952" s="5" t="s">
         <v>17</v>
       </c>
@@ -30265,7 +30268,7 @@
       <c r="M952" s="6"/>
       <c r="N952" s="7"/>
     </row>
-    <row r="953" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B953" s="5" t="s">
         <v>8</v>
       </c>
@@ -30296,7 +30299,7 @@
       <c r="M953" s="6"/>
       <c r="N953" s="7"/>
     </row>
-    <row r="954" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B954" s="5" t="s">
         <v>17</v>
       </c>
@@ -30327,7 +30330,7 @@
       <c r="M954" s="6"/>
       <c r="N954" s="7"/>
     </row>
-    <row r="955" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B955" s="5" t="s">
         <v>8</v>
       </c>
@@ -30358,7 +30361,7 @@
       <c r="M955" s="6"/>
       <c r="N955" s="7"/>
     </row>
-    <row r="956" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B956" s="5" t="s">
         <v>8</v>
       </c>
@@ -30389,7 +30392,7 @@
       <c r="M956" s="6"/>
       <c r="N956" s="7"/>
     </row>
-    <row r="957" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B957" s="5" t="s">
         <v>17</v>
       </c>
@@ -30420,7 +30423,7 @@
       <c r="M957" s="6"/>
       <c r="N957" s="7"/>
     </row>
-    <row r="958" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B958" s="5" t="s">
         <v>8</v>
       </c>
@@ -30451,7 +30454,7 @@
       <c r="M958" s="6"/>
       <c r="N958" s="7"/>
     </row>
-    <row r="959" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B959" s="5" t="s">
         <v>17</v>
       </c>
@@ -30482,7 +30485,7 @@
       <c r="M959" s="6"/>
       <c r="N959" s="7"/>
     </row>
-    <row r="960" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B960" s="5" t="s">
         <v>17</v>
       </c>
@@ -30513,7 +30516,7 @@
       <c r="M960" s="6"/>
       <c r="N960" s="7"/>
     </row>
-    <row r="961" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B961" s="5" t="s">
         <v>8</v>
       </c>
@@ -30544,7 +30547,7 @@
       <c r="M961" s="6"/>
       <c r="N961" s="7"/>
     </row>
-    <row r="962" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B962" s="5" t="s">
         <v>8</v>
       </c>
@@ -30575,7 +30578,7 @@
       <c r="M962" s="6"/>
       <c r="N962" s="7"/>
     </row>
-    <row r="963" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B963" s="5" t="s">
         <v>17</v>
       </c>
@@ -30606,7 +30609,7 @@
       <c r="M963" s="6"/>
       <c r="N963" s="7"/>
     </row>
-    <row r="964" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B964" s="5" t="s">
         <v>8</v>
       </c>
@@ -30637,7 +30640,7 @@
       <c r="M964" s="6"/>
       <c r="N964" s="7"/>
     </row>
-    <row r="965" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B965" s="5" t="s">
         <v>8</v>
       </c>
@@ -30668,7 +30671,7 @@
       <c r="M965" s="6"/>
       <c r="N965" s="7"/>
     </row>
-    <row r="966" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B966" s="5" t="s">
         <v>8</v>
       </c>
@@ -30699,7 +30702,7 @@
       <c r="M966" s="6"/>
       <c r="N966" s="7"/>
     </row>
-    <row r="967" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B967" s="5" t="s">
         <v>8</v>
       </c>
@@ -30730,7 +30733,7 @@
       <c r="M967" s="6"/>
       <c r="N967" s="7"/>
     </row>
-    <row r="968" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B968" s="5" t="s">
         <v>17</v>
       </c>
@@ -30761,7 +30764,7 @@
       <c r="M968" s="6"/>
       <c r="N968" s="7"/>
     </row>
-    <row r="969" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B969" s="5" t="s">
         <v>8</v>
       </c>
@@ -30792,7 +30795,7 @@
       <c r="M969" s="6"/>
       <c r="N969" s="7"/>
     </row>
-    <row r="970" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B970" s="5" t="s">
         <v>17</v>
       </c>
@@ -30823,7 +30826,7 @@
       <c r="M970" s="6"/>
       <c r="N970" s="7"/>
     </row>
-    <row r="971" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B971" s="5" t="s">
         <v>17</v>
       </c>
@@ -30854,7 +30857,7 @@
       <c r="M971" s="6"/>
       <c r="N971" s="7"/>
     </row>
-    <row r="972" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B972" s="5" t="s">
         <v>8</v>
       </c>
@@ -30885,7 +30888,7 @@
       <c r="M972" s="6"/>
       <c r="N972" s="7"/>
     </row>
-    <row r="973" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B973" s="5" t="s">
         <v>8</v>
       </c>
@@ -30916,7 +30919,7 @@
       <c r="M973" s="6"/>
       <c r="N973" s="7"/>
     </row>
-    <row r="974" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B974" s="5" t="s">
         <v>8</v>
       </c>
@@ -30947,7 +30950,7 @@
       <c r="M974" s="6"/>
       <c r="N974" s="7"/>
     </row>
-    <row r="975" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B975" s="5" t="s">
         <v>17</v>
       </c>
@@ -30978,7 +30981,7 @@
       <c r="M975" s="6"/>
       <c r="N975" s="7"/>
     </row>
-    <row r="976" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B976" s="5" t="s">
         <v>8</v>
       </c>
@@ -31009,7 +31012,7 @@
       <c r="M976" s="6"/>
       <c r="N976" s="7"/>
     </row>
-    <row r="977" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B977" s="5" t="s">
         <v>8</v>
       </c>
@@ -31040,7 +31043,7 @@
       <c r="M977" s="6"/>
       <c r="N977" s="7"/>
     </row>
-    <row r="978" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B978" s="5" t="s">
         <v>8</v>
       </c>
@@ -31071,7 +31074,7 @@
       <c r="M978" s="6"/>
       <c r="N978" s="7"/>
     </row>
-    <row r="979" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B979" s="5" t="s">
         <v>8</v>
       </c>
@@ -31102,7 +31105,7 @@
       <c r="M979" s="6"/>
       <c r="N979" s="7"/>
     </row>
-    <row r="980" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B980" s="5" t="s">
         <v>17</v>
       </c>
@@ -31133,7 +31136,7 @@
       <c r="M980" s="6"/>
       <c r="N980" s="7"/>
     </row>
-    <row r="981" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B981" s="5" t="s">
         <v>17</v>
       </c>
@@ -31164,7 +31167,7 @@
       <c r="M981" s="6"/>
       <c r="N981" s="7"/>
     </row>
-    <row r="982" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B982" s="5" t="s">
         <v>17</v>
       </c>
@@ -31195,7 +31198,7 @@
       <c r="M982" s="6"/>
       <c r="N982" s="7"/>
     </row>
-    <row r="983" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B983" s="5" t="s">
         <v>8</v>
       </c>
@@ -31226,7 +31229,7 @@
       <c r="M983" s="6"/>
       <c r="N983" s="7"/>
     </row>
-    <row r="984" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B984" s="5" t="s">
         <v>8</v>
       </c>
@@ -31257,7 +31260,7 @@
       <c r="M984" s="6"/>
       <c r="N984" s="7"/>
     </row>
-    <row r="985" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B985" s="5" t="s">
         <v>17</v>
       </c>
@@ -31288,7 +31291,7 @@
       <c r="M985" s="6"/>
       <c r="N985" s="7"/>
     </row>
-    <row r="986" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B986" s="5" t="s">
         <v>17</v>
       </c>
@@ -31319,7 +31322,7 @@
       <c r="M986" s="6"/>
       <c r="N986" s="7"/>
     </row>
-    <row r="987" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B987" s="5" t="s">
         <v>8</v>
       </c>
@@ -31350,7 +31353,7 @@
       <c r="M987" s="6"/>
       <c r="N987" s="7"/>
     </row>
-    <row r="988" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B988" s="5" t="s">
         <v>8</v>
       </c>
@@ -31381,7 +31384,7 @@
       <c r="M988" s="6"/>
       <c r="N988" s="7"/>
     </row>
-    <row r="989" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B989" s="5" t="s">
         <v>17</v>
       </c>
@@ -31412,7 +31415,7 @@
       <c r="M989" s="6"/>
       <c r="N989" s="7"/>
     </row>
-    <row r="990" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B990" s="5" t="s">
         <v>8</v>
       </c>
@@ -31443,7 +31446,7 @@
       <c r="M990" s="6"/>
       <c r="N990" s="7"/>
     </row>
-    <row r="991" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B991" s="5" t="s">
         <v>17</v>
       </c>
@@ -31474,7 +31477,7 @@
       <c r="M991" s="6"/>
       <c r="N991" s="7"/>
     </row>
-    <row r="992" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B992" s="5" t="s">
         <v>8</v>
       </c>
@@ -31505,7 +31508,7 @@
       <c r="M992" s="6"/>
       <c r="N992" s="7"/>
     </row>
-    <row r="993" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B993" s="5" t="s">
         <v>8</v>
       </c>
@@ -31536,7 +31539,7 @@
       <c r="M993" s="6"/>
       <c r="N993" s="7"/>
     </row>
-    <row r="994" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B994" s="5" t="s">
         <v>17</v>
       </c>
@@ -31567,7 +31570,7 @@
       <c r="M994" s="6"/>
       <c r="N994" s="7"/>
     </row>
-    <row r="995" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B995" s="5" t="s">
         <v>8</v>
       </c>
@@ -31598,7 +31601,7 @@
       <c r="M995" s="6"/>
       <c r="N995" s="7"/>
     </row>
-    <row r="996" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B996" s="5" t="s">
         <v>8</v>
       </c>
@@ -31629,7 +31632,7 @@
       <c r="M996" s="6"/>
       <c r="N996" s="7"/>
     </row>
-    <row r="997" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B997" s="5" t="s">
         <v>8</v>
       </c>
@@ -31660,7 +31663,7 @@
       <c r="M997" s="6"/>
       <c r="N997" s="7"/>
     </row>
-    <row r="998" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B998" s="5" t="s">
         <v>17</v>
       </c>
@@ -31691,7 +31694,7 @@
       <c r="M998" s="6"/>
       <c r="N998" s="7"/>
     </row>
-    <row r="999" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B999" s="5" t="s">
         <v>8</v>
       </c>
@@ -31722,7 +31725,7 @@
       <c r="M999" s="6"/>
       <c r="N999" s="7"/>
     </row>
-    <row r="1000" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B1000" s="5" t="s">
         <v>17</v>
       </c>
@@ -31753,7 +31756,7 @@
       <c r="M1000" s="6"/>
       <c r="N1000" s="7"/>
     </row>
-    <row r="1001" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1001" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B1001" s="5" t="s">
         <v>8</v>
       </c>
@@ -31784,7 +31787,7 @@
       <c r="M1001" s="6"/>
       <c r="N1001" s="7"/>
     </row>
-    <row r="1002" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1002" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B1002" s="5" t="s">
         <v>8</v>
       </c>
@@ -31815,7 +31818,7 @@
       <c r="M1002" s="6"/>
       <c r="N1002" s="7"/>
     </row>
-    <row r="1003" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1003" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B1003" s="8" t="s">
         <v>8</v>
       </c>
